--- a/01_Dimension 11-29/13_Steel Ruler.xlsx
+++ b/01_Dimension 11-29/13_Steel Ruler.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pakaw\oxsoft\metrikos\proecho\01_Dimension 11-29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pakaw\oxsoft\metrikos\evgenis\01_Dimension 11-29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="21045" tabRatio="435" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="21045" tabRatio="435"/>
   </bookViews>
   <sheets>
     <sheet name="Data Record" sheetId="11" r:id="rId1"/>
@@ -1809,7 +1809,7 @@
     <xf numFmtId="0" fontId="72" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="457">
+  <cellXfs count="456">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2559,6 +2559,165 @@
     <xf numFmtId="167" fontId="35" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="35" fillId="0" borderId="7" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="35" fillId="0" borderId="8" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="35" fillId="0" borderId="9" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="35" fillId="0" borderId="13" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="35" fillId="0" borderId="10" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="35" fillId="0" borderId="14" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="54" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="35" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="35" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="54" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="54" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="54" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="54" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="54" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="54" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="15" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="41" fillId="0" borderId="6" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="41" fillId="0" borderId="10" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="167" fontId="35" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2583,9 +2742,6 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2628,165 +2784,6 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="54" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="15" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="41" fillId="0" borderId="6" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="41" fillId="0" borderId="10" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="35" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="35" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="54" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="54" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="54" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="54" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="54" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="54" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="35" fillId="0" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="35" fillId="0" borderId="7" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="35" fillId="0" borderId="8" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="35" fillId="0" borderId="9" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="35" fillId="0" borderId="13" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="35" fillId="0" borderId="10" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="35" fillId="0" borderId="14" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2814,6 +2811,63 @@
     <xf numFmtId="174" fontId="68" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="9" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="9" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="9" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="12" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="12" fillId="0" borderId="6" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="12" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="17" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="17" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2823,15 +2877,6 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2841,145 +2886,220 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="17" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="17" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="9" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="9" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="9" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="12" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="12" fillId="0" borderId="6" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="12" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="3" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="8" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="8" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="8" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="8" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="8" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="75" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="75" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="75" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="18" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="80" fillId="18" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="19" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="76" fillId="18" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="76" fillId="18" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="19" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="175" fontId="3" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2992,129 +3112,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="175" fontId="3" fillId="19" borderId="20" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="19" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="19" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="18" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="18" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="18" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="18" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="8" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="8" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="8" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="8" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="8" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="3" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -10569,8 +10566,8 @@
   </sheetPr>
   <dimension ref="B1:AO42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="B2" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W28" sqref="W28:Z29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B12" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AA34" sqref="AA34:AD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="18.75" customHeight="1"/>
@@ -11023,21 +11020,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" ht="21.75">
-      <c r="B1" s="289" t="s">
+      <c r="B1" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="289"/>
-      <c r="D1" s="289"/>
-      <c r="E1" s="289"/>
-      <c r="F1" s="289"/>
-      <c r="G1" s="289"/>
-      <c r="H1" s="289"/>
-      <c r="I1" s="289"/>
-      <c r="J1" s="289"/>
-      <c r="K1" s="289"/>
-      <c r="L1" s="289"/>
-      <c r="M1" s="289"/>
-      <c r="N1" s="289"/>
+      <c r="C1" s="293"/>
+      <c r="D1" s="293"/>
+      <c r="E1" s="293"/>
+      <c r="F1" s="293"/>
+      <c r="G1" s="293"/>
+      <c r="H1" s="293"/>
+      <c r="I1" s="293"/>
+      <c r="J1" s="293"/>
+      <c r="K1" s="293"/>
+      <c r="L1" s="293"/>
+      <c r="M1" s="293"/>
+      <c r="N1" s="293"/>
       <c r="O1" s="105" t="s">
         <v>60</v>
       </c>
@@ -11045,13 +11042,13 @@
       <c r="Q1" s="105"/>
       <c r="R1" s="105"/>
       <c r="S1" s="116"/>
-      <c r="T1" s="296" t="s">
+      <c r="T1" s="301" t="s">
         <v>113</v>
       </c>
-      <c r="U1" s="296"/>
-      <c r="V1" s="296"/>
-      <c r="W1" s="296"/>
-      <c r="X1" s="296"/>
+      <c r="U1" s="301"/>
+      <c r="V1" s="301"/>
+      <c r="W1" s="301"/>
+      <c r="X1" s="301"/>
       <c r="Y1" s="105"/>
       <c r="Z1" s="105"/>
       <c r="AA1" s="106" t="s">
@@ -11069,63 +11066,63 @@
       <c r="AI1" s="107"/>
     </row>
     <row r="2" spans="2:41" ht="21.75">
-      <c r="B2" s="289"/>
-      <c r="C2" s="289"/>
-      <c r="D2" s="289"/>
-      <c r="E2" s="289"/>
-      <c r="F2" s="289"/>
-      <c r="G2" s="289"/>
-      <c r="H2" s="289"/>
-      <c r="I2" s="289"/>
-      <c r="J2" s="289"/>
-      <c r="K2" s="289"/>
-      <c r="L2" s="289"/>
-      <c r="M2" s="289"/>
-      <c r="N2" s="289"/>
+      <c r="B2" s="293"/>
+      <c r="C2" s="293"/>
+      <c r="D2" s="293"/>
+      <c r="E2" s="293"/>
+      <c r="F2" s="293"/>
+      <c r="G2" s="293"/>
+      <c r="H2" s="293"/>
+      <c r="I2" s="293"/>
+      <c r="J2" s="293"/>
+      <c r="K2" s="293"/>
+      <c r="L2" s="293"/>
+      <c r="M2" s="293"/>
+      <c r="N2" s="293"/>
       <c r="O2" s="106" t="s">
         <v>63</v>
       </c>
       <c r="P2" s="105"/>
       <c r="Q2" s="106"/>
       <c r="R2" s="105"/>
-      <c r="T2" s="292">
+      <c r="T2" s="296">
         <v>42450</v>
       </c>
-      <c r="U2" s="292"/>
-      <c r="V2" s="292"/>
-      <c r="W2" s="292"/>
-      <c r="X2" s="292"/>
+      <c r="U2" s="296"/>
+      <c r="V2" s="296"/>
+      <c r="W2" s="296"/>
+      <c r="X2" s="296"/>
       <c r="Y2" s="106" t="s">
         <v>64</v>
       </c>
       <c r="Z2" s="109"/>
       <c r="AA2" s="109"/>
       <c r="AB2" s="109"/>
-      <c r="AD2" s="293">
+      <c r="AD2" s="297">
         <v>42450</v>
       </c>
-      <c r="AE2" s="293"/>
-      <c r="AF2" s="293"/>
-      <c r="AG2" s="293"/>
-      <c r="AH2" s="293"/>
+      <c r="AE2" s="297"/>
+      <c r="AF2" s="297"/>
+      <c r="AG2" s="297"/>
+      <c r="AH2" s="297"/>
       <c r="AI2" s="107"/>
     </row>
     <row r="3" spans="2:41" ht="21.75">
-      <c r="B3" s="290" t="s">
+      <c r="B3" s="294" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="290"/>
-      <c r="D3" s="290"/>
-      <c r="E3" s="290"/>
-      <c r="F3" s="290"/>
-      <c r="G3" s="290"/>
-      <c r="H3" s="290"/>
-      <c r="I3" s="290"/>
-      <c r="J3" s="290"/>
-      <c r="K3" s="290"/>
-      <c r="L3" s="290"/>
-      <c r="M3" s="290"/>
-      <c r="N3" s="290"/>
+      <c r="C3" s="294"/>
+      <c r="D3" s="294"/>
+      <c r="E3" s="294"/>
+      <c r="F3" s="294"/>
+      <c r="G3" s="294"/>
+      <c r="H3" s="294"/>
+      <c r="I3" s="294"/>
+      <c r="J3" s="294"/>
+      <c r="K3" s="294"/>
+      <c r="L3" s="294"/>
+      <c r="M3" s="294"/>
+      <c r="N3" s="294"/>
       <c r="O3" s="105" t="s">
         <v>66</v>
       </c>
@@ -11133,17 +11130,17 @@
       <c r="Q3" s="105"/>
       <c r="R3" s="105"/>
       <c r="S3" s="105"/>
-      <c r="U3" s="294">
+      <c r="U3" s="298">
         <v>20</v>
       </c>
-      <c r="V3" s="294"/>
+      <c r="V3" s="298"/>
       <c r="W3" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="X3" s="294">
+      <c r="X3" s="298">
         <v>50</v>
       </c>
-      <c r="Y3" s="294"/>
+      <c r="Y3" s="298"/>
       <c r="Z3" s="111" t="s">
         <v>68</v>
       </c>
@@ -11158,21 +11155,21 @@
       <c r="AI3" s="108"/>
     </row>
     <row r="4" spans="2:41" ht="21.75">
-      <c r="B4" s="291" t="s">
+      <c r="B4" s="295" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="291"/>
-      <c r="D4" s="291"/>
-      <c r="E4" s="291"/>
-      <c r="F4" s="291"/>
-      <c r="G4" s="291"/>
-      <c r="H4" s="291"/>
-      <c r="I4" s="291"/>
-      <c r="J4" s="291"/>
-      <c r="K4" s="291"/>
-      <c r="L4" s="291"/>
-      <c r="M4" s="291"/>
-      <c r="N4" s="291"/>
+      <c r="C4" s="295"/>
+      <c r="D4" s="295"/>
+      <c r="E4" s="295"/>
+      <c r="F4" s="295"/>
+      <c r="G4" s="295"/>
+      <c r="H4" s="295"/>
+      <c r="I4" s="295"/>
+      <c r="J4" s="295"/>
+      <c r="K4" s="295"/>
+      <c r="L4" s="295"/>
+      <c r="M4" s="295"/>
+      <c r="N4" s="295"/>
       <c r="O4" s="105" t="s">
         <v>41</v>
       </c>
@@ -11211,30 +11208,30 @@
       <c r="F5" s="113"/>
       <c r="G5" s="113"/>
       <c r="H5" s="113"/>
-      <c r="I5" s="297"/>
-      <c r="J5" s="297"/>
-      <c r="K5" s="297"/>
-      <c r="L5" s="297"/>
-      <c r="M5" s="297"/>
-      <c r="N5" s="297"/>
-      <c r="O5" s="297"/>
-      <c r="P5" s="297"/>
-      <c r="Q5" s="297"/>
-      <c r="R5" s="297"/>
-      <c r="S5" s="297"/>
-      <c r="T5" s="297"/>
-      <c r="U5" s="297"/>
-      <c r="V5" s="297"/>
-      <c r="W5" s="297"/>
-      <c r="X5" s="297"/>
-      <c r="Y5" s="297"/>
-      <c r="Z5" s="297"/>
-      <c r="AA5" s="297"/>
-      <c r="AB5" s="297"/>
-      <c r="AC5" s="297"/>
-      <c r="AD5" s="297"/>
-      <c r="AE5" s="297"/>
-      <c r="AF5" s="297"/>
+      <c r="I5" s="302"/>
+      <c r="J5" s="302"/>
+      <c r="K5" s="302"/>
+      <c r="L5" s="302"/>
+      <c r="M5" s="302"/>
+      <c r="N5" s="302"/>
+      <c r="O5" s="302"/>
+      <c r="P5" s="302"/>
+      <c r="Q5" s="302"/>
+      <c r="R5" s="302"/>
+      <c r="S5" s="302"/>
+      <c r="T5" s="302"/>
+      <c r="U5" s="302"/>
+      <c r="V5" s="302"/>
+      <c r="W5" s="302"/>
+      <c r="X5" s="302"/>
+      <c r="Y5" s="302"/>
+      <c r="Z5" s="302"/>
+      <c r="AA5" s="302"/>
+      <c r="AB5" s="302"/>
+      <c r="AC5" s="302"/>
+      <c r="AD5" s="302"/>
+      <c r="AE5" s="302"/>
+      <c r="AF5" s="302"/>
       <c r="AG5" s="114"/>
     </row>
     <row r="6" spans="2:41" s="86" customFormat="1" ht="23.1" customHeight="1">
@@ -11247,74 +11244,74 @@
       <c r="F6" s="113"/>
       <c r="G6" s="113"/>
       <c r="H6" s="113"/>
-      <c r="I6" s="280" t="s">
+      <c r="I6" s="303" t="s">
         <v>85</v>
       </c>
-      <c r="J6" s="280"/>
-      <c r="K6" s="280"/>
-      <c r="L6" s="280"/>
-      <c r="M6" s="280"/>
-      <c r="N6" s="280"/>
-      <c r="O6" s="280"/>
-      <c r="P6" s="280"/>
-      <c r="Q6" s="280"/>
-      <c r="R6" s="280"/>
+      <c r="J6" s="303"/>
+      <c r="K6" s="303"/>
+      <c r="L6" s="303"/>
+      <c r="M6" s="303"/>
+      <c r="N6" s="303"/>
+      <c r="O6" s="303"/>
+      <c r="P6" s="303"/>
+      <c r="Q6" s="303"/>
+      <c r="R6" s="303"/>
       <c r="S6" s="115" t="s">
         <v>73</v>
       </c>
       <c r="T6" s="161"/>
-      <c r="X6" s="280" t="s">
+      <c r="X6" s="303" t="s">
         <v>112</v>
       </c>
-      <c r="Y6" s="280"/>
-      <c r="Z6" s="280"/>
-      <c r="AA6" s="280"/>
-      <c r="AB6" s="280"/>
-      <c r="AC6" s="280"/>
-      <c r="AD6" s="280"/>
-      <c r="AE6" s="280"/>
-      <c r="AF6" s="280"/>
+      <c r="Y6" s="303"/>
+      <c r="Z6" s="303"/>
+      <c r="AA6" s="303"/>
+      <c r="AB6" s="303"/>
+      <c r="AC6" s="303"/>
+      <c r="AD6" s="303"/>
+      <c r="AE6" s="303"/>
+      <c r="AF6" s="303"/>
       <c r="AG6" s="114"/>
     </row>
     <row r="7" spans="2:41" s="86" customFormat="1" ht="23.1" customHeight="1">
       <c r="B7" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="279">
+      <c r="G7" s="331">
         <v>123</v>
       </c>
-      <c r="H7" s="279"/>
-      <c r="I7" s="279"/>
-      <c r="J7" s="279"/>
-      <c r="K7" s="279"/>
-      <c r="L7" s="279"/>
-      <c r="M7" s="279"/>
-      <c r="O7" s="264" t="s">
+      <c r="H7" s="331"/>
+      <c r="I7" s="331"/>
+      <c r="J7" s="331"/>
+      <c r="K7" s="331"/>
+      <c r="L7" s="331"/>
+      <c r="M7" s="331"/>
+      <c r="O7" s="317" t="s">
         <v>74</v>
       </c>
-      <c r="P7" s="264"/>
-      <c r="Q7" s="264"/>
-      <c r="R7" s="279">
+      <c r="P7" s="317"/>
+      <c r="Q7" s="317"/>
+      <c r="R7" s="331">
         <v>123456</v>
       </c>
-      <c r="S7" s="279"/>
-      <c r="T7" s="279"/>
-      <c r="U7" s="279"/>
-      <c r="V7" s="279"/>
-      <c r="W7" s="279"/>
-      <c r="X7" s="279"/>
-      <c r="Y7" s="279"/>
-      <c r="Z7" s="278" t="s">
+      <c r="S7" s="331"/>
+      <c r="T7" s="331"/>
+      <c r="U7" s="331"/>
+      <c r="V7" s="331"/>
+      <c r="W7" s="331"/>
+      <c r="X7" s="331"/>
+      <c r="Y7" s="331"/>
+      <c r="Z7" s="330" t="s">
         <v>43</v>
       </c>
-      <c r="AA7" s="278"/>
-      <c r="AB7" s="280" t="s">
+      <c r="AA7" s="330"/>
+      <c r="AB7" s="303" t="s">
         <v>114</v>
       </c>
-      <c r="AC7" s="280"/>
-      <c r="AD7" s="280"/>
-      <c r="AE7" s="280"/>
-      <c r="AF7" s="280"/>
+      <c r="AC7" s="303"/>
+      <c r="AD7" s="303"/>
+      <c r="AE7" s="303"/>
+      <c r="AF7" s="303"/>
       <c r="AG7" s="114"/>
       <c r="AH7" s="117"/>
       <c r="AI7" s="117"/>
@@ -11327,18 +11324,18 @@
       <c r="D8" s="113"/>
       <c r="E8" s="113"/>
       <c r="F8" s="113"/>
-      <c r="G8" s="265">
+      <c r="G8" s="300">
         <v>0</v>
       </c>
-      <c r="H8" s="265"/>
+      <c r="H8" s="300"/>
       <c r="I8" s="115" t="s">
         <v>76</v>
       </c>
-      <c r="J8" s="295">
+      <c r="J8" s="299">
         <v>2000</v>
       </c>
-      <c r="K8" s="295"/>
-      <c r="L8" s="295"/>
+      <c r="K8" s="299"/>
+      <c r="L8" s="299"/>
       <c r="M8" s="118" t="s">
         <v>7</v>
       </c>
@@ -11347,10 +11344,10 @@
       <c r="T8" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="U8" s="265">
+      <c r="U8" s="300">
         <v>10</v>
       </c>
-      <c r="V8" s="265"/>
+      <c r="V8" s="300"/>
       <c r="W8" s="115" t="s">
         <v>117</v>
       </c>
@@ -11532,53 +11529,53 @@
       <c r="AM13" s="127"/>
     </row>
     <row r="14" spans="2:41" customFormat="1" ht="21" customHeight="1">
-      <c r="B14" s="283" t="s">
+      <c r="B14" s="304" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="284"/>
-      <c r="D14" s="285"/>
-      <c r="E14" s="329" t="s">
+      <c r="C14" s="305"/>
+      <c r="D14" s="306"/>
+      <c r="E14" s="257" t="s">
         <v>121</v>
       </c>
-      <c r="F14" s="330"/>
-      <c r="G14" s="261" t="s">
+      <c r="F14" s="258"/>
+      <c r="G14" s="314" t="s">
         <v>90</v>
       </c>
-      <c r="H14" s="262"/>
-      <c r="I14" s="262"/>
-      <c r="J14" s="262"/>
-      <c r="K14" s="262"/>
-      <c r="L14" s="262"/>
-      <c r="M14" s="262"/>
-      <c r="N14" s="262"/>
-      <c r="O14" s="262"/>
-      <c r="P14" s="262"/>
-      <c r="Q14" s="262"/>
-      <c r="R14" s="262"/>
-      <c r="S14" s="262"/>
-      <c r="T14" s="262"/>
-      <c r="U14" s="262"/>
-      <c r="V14" s="263"/>
-      <c r="W14" s="266" t="s">
+      <c r="H14" s="315"/>
+      <c r="I14" s="315"/>
+      <c r="J14" s="315"/>
+      <c r="K14" s="315"/>
+      <c r="L14" s="315"/>
+      <c r="M14" s="315"/>
+      <c r="N14" s="315"/>
+      <c r="O14" s="315"/>
+      <c r="P14" s="315"/>
+      <c r="Q14" s="315"/>
+      <c r="R14" s="315"/>
+      <c r="S14" s="315"/>
+      <c r="T14" s="315"/>
+      <c r="U14" s="315"/>
+      <c r="V14" s="316"/>
+      <c r="W14" s="318" t="s">
         <v>46</v>
       </c>
-      <c r="X14" s="267"/>
-      <c r="Y14" s="267"/>
-      <c r="Z14" s="268"/>
-      <c r="AA14" s="272" t="s">
+      <c r="X14" s="319"/>
+      <c r="Y14" s="319"/>
+      <c r="Z14" s="320"/>
+      <c r="AA14" s="324" t="s">
         <v>2</v>
       </c>
-      <c r="AB14" s="273"/>
-      <c r="AC14" s="273"/>
-      <c r="AD14" s="274"/>
-      <c r="AE14" s="266" t="s">
+      <c r="AB14" s="325"/>
+      <c r="AC14" s="325"/>
+      <c r="AD14" s="326"/>
+      <c r="AE14" s="318" t="s">
         <v>52</v>
       </c>
-      <c r="AF14" s="267"/>
-      <c r="AG14" s="267"/>
-      <c r="AH14" s="268"/>
+      <c r="AF14" s="319"/>
+      <c r="AG14" s="319"/>
+      <c r="AH14" s="320"/>
       <c r="AI14" s="100"/>
-      <c r="AJ14" s="260"/>
+      <c r="AJ14" s="313"/>
       <c r="AK14" s="100"/>
       <c r="AL14" s="100"/>
       <c r="AM14" s="100"/>
@@ -11586,49 +11583,49 @@
       <c r="AO14" s="116"/>
     </row>
     <row r="15" spans="2:41" customFormat="1" ht="21" customHeight="1">
-      <c r="B15" s="286"/>
-      <c r="C15" s="287"/>
-      <c r="D15" s="288"/>
-      <c r="E15" s="331"/>
-      <c r="F15" s="332"/>
-      <c r="G15" s="261" t="s">
+      <c r="B15" s="307"/>
+      <c r="C15" s="308"/>
+      <c r="D15" s="309"/>
+      <c r="E15" s="259"/>
+      <c r="F15" s="260"/>
+      <c r="G15" s="314" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="262"/>
-      <c r="I15" s="262"/>
-      <c r="J15" s="263"/>
-      <c r="K15" s="261" t="s">
+      <c r="H15" s="315"/>
+      <c r="I15" s="315"/>
+      <c r="J15" s="316"/>
+      <c r="K15" s="314" t="s">
         <v>49</v>
       </c>
-      <c r="L15" s="262"/>
-      <c r="M15" s="262"/>
-      <c r="N15" s="263"/>
-      <c r="O15" s="261" t="s">
+      <c r="L15" s="315"/>
+      <c r="M15" s="315"/>
+      <c r="N15" s="316"/>
+      <c r="O15" s="314" t="s">
         <v>50</v>
       </c>
-      <c r="P15" s="262"/>
-      <c r="Q15" s="262"/>
-      <c r="R15" s="263"/>
-      <c r="S15" s="261" t="s">
+      <c r="P15" s="315"/>
+      <c r="Q15" s="315"/>
+      <c r="R15" s="316"/>
+      <c r="S15" s="314" t="s">
         <v>51</v>
       </c>
-      <c r="T15" s="262"/>
-      <c r="U15" s="262"/>
-      <c r="V15" s="263"/>
-      <c r="W15" s="269"/>
-      <c r="X15" s="270"/>
-      <c r="Y15" s="270"/>
-      <c r="Z15" s="271"/>
-      <c r="AA15" s="275"/>
-      <c r="AB15" s="276"/>
-      <c r="AC15" s="276"/>
-      <c r="AD15" s="277"/>
-      <c r="AE15" s="269"/>
-      <c r="AF15" s="270"/>
-      <c r="AG15" s="270"/>
-      <c r="AH15" s="271"/>
+      <c r="T15" s="315"/>
+      <c r="U15" s="315"/>
+      <c r="V15" s="316"/>
+      <c r="W15" s="321"/>
+      <c r="X15" s="322"/>
+      <c r="Y15" s="322"/>
+      <c r="Z15" s="323"/>
+      <c r="AA15" s="327"/>
+      <c r="AB15" s="328"/>
+      <c r="AC15" s="328"/>
+      <c r="AD15" s="329"/>
+      <c r="AE15" s="321"/>
+      <c r="AF15" s="322"/>
+      <c r="AG15" s="322"/>
+      <c r="AH15" s="323"/>
       <c r="AI15" s="100"/>
-      <c r="AJ15" s="260"/>
+      <c r="AJ15" s="313"/>
       <c r="AK15" s="100"/>
       <c r="AL15" s="100"/>
       <c r="AM15" s="100"/>
@@ -11636,63 +11633,63 @@
       <c r="AO15" s="166"/>
     </row>
     <row r="16" spans="2:41" customFormat="1" ht="21" customHeight="1">
-      <c r="B16" s="298">
+      <c r="B16" s="286">
         <v>0</v>
       </c>
-      <c r="C16" s="299"/>
-      <c r="D16" s="300"/>
-      <c r="E16" s="298" t="s">
+      <c r="C16" s="289"/>
+      <c r="D16" s="287"/>
+      <c r="E16" s="286" t="s">
         <v>119</v>
       </c>
-      <c r="F16" s="300"/>
-      <c r="G16" s="257">
+      <c r="F16" s="287"/>
+      <c r="G16" s="310">
         <v>0</v>
       </c>
-      <c r="H16" s="258"/>
-      <c r="I16" s="258"/>
-      <c r="J16" s="259"/>
-      <c r="K16" s="257">
+      <c r="H16" s="311"/>
+      <c r="I16" s="311"/>
+      <c r="J16" s="312"/>
+      <c r="K16" s="310">
         <f>G16</f>
         <v>0</v>
       </c>
-      <c r="L16" s="258"/>
-      <c r="M16" s="258"/>
-      <c r="N16" s="259"/>
-      <c r="O16" s="257">
+      <c r="L16" s="311"/>
+      <c r="M16" s="311"/>
+      <c r="N16" s="312"/>
+      <c r="O16" s="310">
         <f>K16</f>
         <v>0</v>
       </c>
-      <c r="P16" s="258"/>
-      <c r="Q16" s="258"/>
-      <c r="R16" s="259"/>
-      <c r="S16" s="257">
+      <c r="P16" s="311"/>
+      <c r="Q16" s="311"/>
+      <c r="R16" s="312"/>
+      <c r="S16" s="310">
         <f>O16</f>
         <v>0</v>
       </c>
-      <c r="T16" s="258"/>
-      <c r="U16" s="258"/>
-      <c r="V16" s="259"/>
-      <c r="W16" s="309">
+      <c r="T16" s="311"/>
+      <c r="U16" s="311"/>
+      <c r="V16" s="312"/>
+      <c r="W16" s="278">
         <f>(AVERAGE(G16:V16)+AVERAGE(G17:V17))/2</f>
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="X16" s="310"/>
-      <c r="Y16" s="310"/>
-      <c r="Z16" s="311"/>
-      <c r="AA16" s="323">
-        <f>STDEV(G16:V17)/SQRT(4)</f>
+      <c r="X16" s="279"/>
+      <c r="Y16" s="279"/>
+      <c r="Z16" s="280"/>
+      <c r="AA16" s="268">
+        <f>_xlfn.STDEV.S(G16:V17)/SQRT(4)</f>
         <v>8.0178372573727312E-5</v>
       </c>
-      <c r="AB16" s="324"/>
-      <c r="AC16" s="324"/>
-      <c r="AD16" s="325"/>
-      <c r="AE16" s="316">
+      <c r="AB16" s="269"/>
+      <c r="AC16" s="269"/>
+      <c r="AD16" s="270"/>
+      <c r="AE16" s="261">
         <f>B16-W16</f>
         <v>-1.4999999999999999E-4</v>
       </c>
-      <c r="AF16" s="317"/>
-      <c r="AG16" s="317"/>
-      <c r="AH16" s="318"/>
+      <c r="AF16" s="262"/>
+      <c r="AG16" s="262"/>
+      <c r="AH16" s="263"/>
       <c r="AI16" s="100"/>
       <c r="AJ16" s="153"/>
       <c r="AK16" s="100"/>
@@ -11702,49 +11699,49 @@
       <c r="AO16" s="167"/>
     </row>
     <row r="17" spans="2:41" customFormat="1" ht="21" customHeight="1">
-      <c r="B17" s="301"/>
-      <c r="C17" s="302"/>
-      <c r="D17" s="303"/>
-      <c r="E17" s="304" t="s">
+      <c r="B17" s="290"/>
+      <c r="C17" s="291"/>
+      <c r="D17" s="292"/>
+      <c r="E17" s="284" t="s">
         <v>120</v>
       </c>
-      <c r="F17" s="305"/>
-      <c r="G17" s="306">
+      <c r="F17" s="285"/>
+      <c r="G17" s="275">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="H17" s="307"/>
-      <c r="I17" s="307"/>
-      <c r="J17" s="308"/>
-      <c r="K17" s="306">
+      <c r="H17" s="276"/>
+      <c r="I17" s="276"/>
+      <c r="J17" s="277"/>
+      <c r="K17" s="275">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="L17" s="307"/>
-      <c r="M17" s="307"/>
-      <c r="N17" s="308"/>
-      <c r="O17" s="306">
+      <c r="L17" s="276"/>
+      <c r="M17" s="276"/>
+      <c r="N17" s="277"/>
+      <c r="O17" s="275">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="P17" s="307"/>
-      <c r="Q17" s="307"/>
-      <c r="R17" s="308"/>
-      <c r="S17" s="306">
+      <c r="P17" s="276"/>
+      <c r="Q17" s="276"/>
+      <c r="R17" s="277"/>
+      <c r="S17" s="275">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="T17" s="307"/>
-      <c r="U17" s="307"/>
-      <c r="V17" s="308"/>
-      <c r="W17" s="312"/>
-      <c r="X17" s="313"/>
-      <c r="Y17" s="313"/>
-      <c r="Z17" s="314"/>
-      <c r="AA17" s="326"/>
-      <c r="AB17" s="327"/>
-      <c r="AC17" s="327"/>
-      <c r="AD17" s="328"/>
-      <c r="AE17" s="319"/>
-      <c r="AF17" s="320"/>
-      <c r="AG17" s="320"/>
-      <c r="AH17" s="321"/>
+      <c r="T17" s="276"/>
+      <c r="U17" s="276"/>
+      <c r="V17" s="277"/>
+      <c r="W17" s="281"/>
+      <c r="X17" s="282"/>
+      <c r="Y17" s="282"/>
+      <c r="Z17" s="283"/>
+      <c r="AA17" s="271"/>
+      <c r="AB17" s="272"/>
+      <c r="AC17" s="272"/>
+      <c r="AD17" s="273"/>
+      <c r="AE17" s="264"/>
+      <c r="AF17" s="265"/>
+      <c r="AG17" s="265"/>
+      <c r="AH17" s="266"/>
       <c r="AI17" s="100"/>
       <c r="AJ17" s="153"/>
       <c r="AK17" s="100"/>
@@ -11754,16 +11751,16 @@
       <c r="AO17" s="167"/>
     </row>
     <row r="18" spans="2:41" customFormat="1" ht="21" customHeight="1">
-      <c r="B18" s="282">
+      <c r="B18" s="288">
         <f>J8*10%</f>
         <v>200</v>
       </c>
-      <c r="C18" s="282"/>
-      <c r="D18" s="282"/>
-      <c r="E18" s="298" t="s">
+      <c r="C18" s="288"/>
+      <c r="D18" s="288"/>
+      <c r="E18" s="286" t="s">
         <v>119</v>
       </c>
-      <c r="F18" s="300"/>
+      <c r="F18" s="287"/>
       <c r="G18" s="256">
         <v>199.99879999999999</v>
       </c>
@@ -11788,27 +11785,27 @@
       <c r="T18" s="256"/>
       <c r="U18" s="256"/>
       <c r="V18" s="256"/>
-      <c r="W18" s="281">
+      <c r="W18" s="274">
         <f>(AVERAGE(G18:V18)+AVERAGE(G19:V19))/2</f>
         <v>199.99945</v>
       </c>
-      <c r="X18" s="281"/>
-      <c r="Y18" s="281"/>
-      <c r="Z18" s="281"/>
-      <c r="AA18" s="315">
-        <f t="shared" ref="AA18:AA36" si="0">STDEV(G18:V18)/SQRT(4)</f>
-        <v>0</v>
-      </c>
-      <c r="AB18" s="315"/>
-      <c r="AC18" s="315"/>
-      <c r="AD18" s="315"/>
-      <c r="AE18" s="322">
+      <c r="X18" s="274"/>
+      <c r="Y18" s="274"/>
+      <c r="Z18" s="274"/>
+      <c r="AA18" s="268">
+        <f t="shared" ref="AA18:AA37" si="0">_xlfn.STDEV.S(G18:V19)/SQRT(4)</f>
+        <v>3.4743961449008951E-4</v>
+      </c>
+      <c r="AB18" s="269"/>
+      <c r="AC18" s="269"/>
+      <c r="AD18" s="270"/>
+      <c r="AE18" s="267">
         <f>B18-W18</f>
         <v>5.5000000000404725E-4</v>
       </c>
-      <c r="AF18" s="322"/>
-      <c r="AG18" s="322"/>
-      <c r="AH18" s="322"/>
+      <c r="AF18" s="267"/>
+      <c r="AG18" s="267"/>
+      <c r="AH18" s="267"/>
       <c r="AI18" s="100"/>
       <c r="AJ18" s="153"/>
       <c r="AK18" s="100"/>
@@ -11818,13 +11815,13 @@
       <c r="AO18" s="167"/>
     </row>
     <row r="19" spans="2:41" customFormat="1" ht="21" customHeight="1">
-      <c r="B19" s="282"/>
-      <c r="C19" s="282"/>
-      <c r="D19" s="282"/>
-      <c r="E19" s="304" t="s">
+      <c r="B19" s="288"/>
+      <c r="C19" s="288"/>
+      <c r="D19" s="288"/>
+      <c r="E19" s="284" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="305"/>
+      <c r="F19" s="285"/>
       <c r="G19" s="256">
         <v>200.0001</v>
       </c>
@@ -11849,18 +11846,18 @@
       <c r="T19" s="256"/>
       <c r="U19" s="256"/>
       <c r="V19" s="256"/>
-      <c r="W19" s="281"/>
-      <c r="X19" s="281"/>
-      <c r="Y19" s="281"/>
-      <c r="Z19" s="281"/>
-      <c r="AA19" s="315"/>
-      <c r="AB19" s="315"/>
-      <c r="AC19" s="315"/>
-      <c r="AD19" s="315"/>
-      <c r="AE19" s="322"/>
-      <c r="AF19" s="322"/>
-      <c r="AG19" s="322"/>
-      <c r="AH19" s="322"/>
+      <c r="W19" s="274"/>
+      <c r="X19" s="274"/>
+      <c r="Y19" s="274"/>
+      <c r="Z19" s="274"/>
+      <c r="AA19" s="271"/>
+      <c r="AB19" s="272"/>
+      <c r="AC19" s="272"/>
+      <c r="AD19" s="273"/>
+      <c r="AE19" s="267"/>
+      <c r="AF19" s="267"/>
+      <c r="AG19" s="267"/>
+      <c r="AH19" s="267"/>
       <c r="AI19" s="100"/>
       <c r="AJ19" s="153"/>
       <c r="AK19" s="100"/>
@@ -11870,16 +11867,16 @@
       <c r="AO19" s="167"/>
     </row>
     <row r="20" spans="2:41" customFormat="1" ht="21" customHeight="1">
-      <c r="B20" s="282">
+      <c r="B20" s="288">
         <f>J8*20%</f>
         <v>400</v>
       </c>
-      <c r="C20" s="282"/>
-      <c r="D20" s="282"/>
-      <c r="E20" s="298" t="s">
+      <c r="C20" s="288"/>
+      <c r="D20" s="288"/>
+      <c r="E20" s="286" t="s">
         <v>119</v>
       </c>
-      <c r="F20" s="300"/>
+      <c r="F20" s="287"/>
       <c r="G20" s="256">
         <v>399.99959999999999</v>
       </c>
@@ -11904,27 +11901,27 @@
       <c r="T20" s="256"/>
       <c r="U20" s="256"/>
       <c r="V20" s="256"/>
-      <c r="W20" s="281">
+      <c r="W20" s="274">
         <f>(AVERAGE(G20:V20)+AVERAGE(G21:V21))/2</f>
         <v>399.99959999999999</v>
       </c>
-      <c r="X20" s="281"/>
-      <c r="Y20" s="281"/>
-      <c r="Z20" s="281"/>
-      <c r="AA20" s="315">
-        <f t="shared" si="0"/>
-        <v>4.7871355388169173E-5</v>
-      </c>
-      <c r="AB20" s="315"/>
-      <c r="AC20" s="315"/>
-      <c r="AD20" s="315"/>
-      <c r="AE20" s="322">
+      <c r="X20" s="274"/>
+      <c r="Y20" s="274"/>
+      <c r="Z20" s="274"/>
+      <c r="AA20" s="268">
+        <f t="shared" ref="AA20:AA37" si="1">_xlfn.STDEV.S(G20:V21)/SQRT(4)</f>
+        <v>7.0710678123873127E-5</v>
+      </c>
+      <c r="AB20" s="269"/>
+      <c r="AC20" s="269"/>
+      <c r="AD20" s="270"/>
+      <c r="AE20" s="267">
         <f>B20-W20</f>
         <v>4.0000000001327862E-4</v>
       </c>
-      <c r="AF20" s="322"/>
-      <c r="AG20" s="322"/>
-      <c r="AH20" s="322"/>
+      <c r="AF20" s="267"/>
+      <c r="AG20" s="267"/>
+      <c r="AH20" s="267"/>
       <c r="AI20" s="100"/>
       <c r="AJ20" s="153"/>
       <c r="AK20" s="100"/>
@@ -11934,13 +11931,13 @@
       <c r="AO20" s="167"/>
     </row>
     <row r="21" spans="2:41" customFormat="1" ht="21" customHeight="1">
-      <c r="B21" s="282"/>
-      <c r="C21" s="282"/>
-      <c r="D21" s="282"/>
-      <c r="E21" s="304" t="s">
+      <c r="B21" s="288"/>
+      <c r="C21" s="288"/>
+      <c r="D21" s="288"/>
+      <c r="E21" s="284" t="s">
         <v>120</v>
       </c>
-      <c r="F21" s="305"/>
+      <c r="F21" s="285"/>
       <c r="G21" s="256">
         <v>399.99959999999999</v>
       </c>
@@ -11965,18 +11962,18 @@
       <c r="T21" s="256"/>
       <c r="U21" s="256"/>
       <c r="V21" s="256"/>
-      <c r="W21" s="281"/>
-      <c r="X21" s="281"/>
-      <c r="Y21" s="281"/>
-      <c r="Z21" s="281"/>
-      <c r="AA21" s="315"/>
-      <c r="AB21" s="315"/>
-      <c r="AC21" s="315"/>
-      <c r="AD21" s="315"/>
-      <c r="AE21" s="322"/>
-      <c r="AF21" s="322"/>
-      <c r="AG21" s="322"/>
-      <c r="AH21" s="322"/>
+      <c r="W21" s="274"/>
+      <c r="X21" s="274"/>
+      <c r="Y21" s="274"/>
+      <c r="Z21" s="274"/>
+      <c r="AA21" s="271"/>
+      <c r="AB21" s="272"/>
+      <c r="AC21" s="272"/>
+      <c r="AD21" s="273"/>
+      <c r="AE21" s="267"/>
+      <c r="AF21" s="267"/>
+      <c r="AG21" s="267"/>
+      <c r="AH21" s="267"/>
       <c r="AI21" s="100"/>
       <c r="AJ21" s="153"/>
       <c r="AK21" s="100"/>
@@ -11986,16 +11983,16 @@
       <c r="AO21" s="167"/>
     </row>
     <row r="22" spans="2:41" customFormat="1" ht="21" customHeight="1">
-      <c r="B22" s="282">
+      <c r="B22" s="288">
         <f>J8*30%</f>
         <v>600</v>
       </c>
-      <c r="C22" s="282"/>
-      <c r="D22" s="282"/>
-      <c r="E22" s="298" t="s">
+      <c r="C22" s="288"/>
+      <c r="D22" s="288"/>
+      <c r="E22" s="286" t="s">
         <v>119</v>
       </c>
-      <c r="F22" s="300"/>
+      <c r="F22" s="287"/>
       <c r="G22" s="256">
         <v>59.999200000000002</v>
       </c>
@@ -12020,27 +12017,27 @@
       <c r="T22" s="256"/>
       <c r="U22" s="256"/>
       <c r="V22" s="256"/>
-      <c r="W22" s="281">
+      <c r="W22" s="274">
         <f>(AVERAGE(G22:V22)+AVERAGE(G23:V23))/2</f>
         <v>59.99915</v>
       </c>
-      <c r="X22" s="281"/>
-      <c r="Y22" s="281"/>
-      <c r="Z22" s="281"/>
-      <c r="AA22" s="315">
-        <f t="shared" si="0"/>
-        <v>4.9999999999883471E-5</v>
-      </c>
-      <c r="AB22" s="315"/>
-      <c r="AC22" s="315"/>
-      <c r="AD22" s="315"/>
-      <c r="AE22" s="322">
+      <c r="X22" s="274"/>
+      <c r="Y22" s="274"/>
+      <c r="Z22" s="274"/>
+      <c r="AA22" s="268">
+        <f t="shared" ref="AA22:AA37" si="2">_xlfn.STDEV.S(G22:V23)/SQRT(4)</f>
+        <v>4.629100498851969E-5</v>
+      </c>
+      <c r="AB22" s="269"/>
+      <c r="AC22" s="269"/>
+      <c r="AD22" s="270"/>
+      <c r="AE22" s="267">
         <f>B22-W22</f>
         <v>540.00085000000001</v>
       </c>
-      <c r="AF22" s="322"/>
-      <c r="AG22" s="322"/>
-      <c r="AH22" s="322"/>
+      <c r="AF22" s="267"/>
+      <c r="AG22" s="267"/>
+      <c r="AH22" s="267"/>
       <c r="AI22" s="100"/>
       <c r="AJ22" s="153"/>
       <c r="AK22" s="100"/>
@@ -12050,13 +12047,13 @@
       <c r="AO22" s="167"/>
     </row>
     <row r="23" spans="2:41" customFormat="1" ht="21" customHeight="1">
-      <c r="B23" s="282"/>
-      <c r="C23" s="282"/>
-      <c r="D23" s="282"/>
-      <c r="E23" s="304" t="s">
+      <c r="B23" s="288"/>
+      <c r="C23" s="288"/>
+      <c r="D23" s="288"/>
+      <c r="E23" s="284" t="s">
         <v>120</v>
       </c>
-      <c r="F23" s="305"/>
+      <c r="F23" s="285"/>
       <c r="G23" s="256">
         <v>59.999200000000002</v>
       </c>
@@ -12081,18 +12078,18 @@
       <c r="T23" s="256"/>
       <c r="U23" s="256"/>
       <c r="V23" s="256"/>
-      <c r="W23" s="281"/>
-      <c r="X23" s="281"/>
-      <c r="Y23" s="281"/>
-      <c r="Z23" s="281"/>
-      <c r="AA23" s="315"/>
-      <c r="AB23" s="315"/>
-      <c r="AC23" s="315"/>
-      <c r="AD23" s="315"/>
-      <c r="AE23" s="322"/>
-      <c r="AF23" s="322"/>
-      <c r="AG23" s="322"/>
-      <c r="AH23" s="322"/>
+      <c r="W23" s="274"/>
+      <c r="X23" s="274"/>
+      <c r="Y23" s="274"/>
+      <c r="Z23" s="274"/>
+      <c r="AA23" s="271"/>
+      <c r="AB23" s="272"/>
+      <c r="AC23" s="272"/>
+      <c r="AD23" s="273"/>
+      <c r="AE23" s="267"/>
+      <c r="AF23" s="267"/>
+      <c r="AG23" s="267"/>
+      <c r="AH23" s="267"/>
       <c r="AI23" s="100"/>
       <c r="AJ23" s="153"/>
       <c r="AK23" s="100"/>
@@ -12102,16 +12099,16 @@
       <c r="AO23" s="167"/>
     </row>
     <row r="24" spans="2:41" customFormat="1" ht="21" customHeight="1">
-      <c r="B24" s="282">
+      <c r="B24" s="288">
         <f>J8*40%</f>
         <v>800</v>
       </c>
-      <c r="C24" s="282"/>
-      <c r="D24" s="282"/>
-      <c r="E24" s="298" t="s">
+      <c r="C24" s="288"/>
+      <c r="D24" s="288"/>
+      <c r="E24" s="286" t="s">
         <v>119</v>
       </c>
-      <c r="F24" s="300"/>
+      <c r="F24" s="287"/>
       <c r="G24" s="256">
         <v>79.998599999999996</v>
       </c>
@@ -12136,27 +12133,27 @@
       <c r="T24" s="256"/>
       <c r="U24" s="256"/>
       <c r="V24" s="256"/>
-      <c r="W24" s="281">
+      <c r="W24" s="274">
         <f>(AVERAGE(G24:V24)+AVERAGE(G25:V25))/2</f>
         <v>79.998525000000001</v>
       </c>
-      <c r="X24" s="281"/>
-      <c r="Y24" s="281"/>
-      <c r="Z24" s="281"/>
-      <c r="AA24" s="315">
-        <f t="shared" si="0"/>
-        <v>1.250000000008337E-4</v>
-      </c>
-      <c r="AB24" s="315"/>
-      <c r="AC24" s="315"/>
-      <c r="AD24" s="315"/>
-      <c r="AE24" s="322">
+      <c r="X24" s="274"/>
+      <c r="Y24" s="274"/>
+      <c r="Z24" s="274"/>
+      <c r="AA24" s="268">
+        <f t="shared" ref="AA24:AA37" si="3">_xlfn.STDEV.S(G24:V25)/SQRT(4)</f>
+        <v>1.1572751247234081E-4</v>
+      </c>
+      <c r="AB24" s="269"/>
+      <c r="AC24" s="269"/>
+      <c r="AD24" s="270"/>
+      <c r="AE24" s="267">
         <f>B24-W24</f>
         <v>720.00147500000003</v>
       </c>
-      <c r="AF24" s="322"/>
-      <c r="AG24" s="322"/>
-      <c r="AH24" s="322"/>
+      <c r="AF24" s="267"/>
+      <c r="AG24" s="267"/>
+      <c r="AH24" s="267"/>
       <c r="AI24" s="100"/>
       <c r="AJ24" s="153"/>
       <c r="AK24" s="100"/>
@@ -12166,13 +12163,13 @@
       <c r="AO24" s="167"/>
     </row>
     <row r="25" spans="2:41" customFormat="1" ht="21" customHeight="1">
-      <c r="B25" s="282"/>
-      <c r="C25" s="282"/>
-      <c r="D25" s="282"/>
-      <c r="E25" s="304" t="s">
+      <c r="B25" s="288"/>
+      <c r="C25" s="288"/>
+      <c r="D25" s="288"/>
+      <c r="E25" s="284" t="s">
         <v>120</v>
       </c>
-      <c r="F25" s="305"/>
+      <c r="F25" s="285"/>
       <c r="G25" s="256">
         <v>79.998599999999996</v>
       </c>
@@ -12197,18 +12194,18 @@
       <c r="T25" s="256"/>
       <c r="U25" s="256"/>
       <c r="V25" s="256"/>
-      <c r="W25" s="281"/>
-      <c r="X25" s="281"/>
-      <c r="Y25" s="281"/>
-      <c r="Z25" s="281"/>
-      <c r="AA25" s="315"/>
-      <c r="AB25" s="315"/>
-      <c r="AC25" s="315"/>
-      <c r="AD25" s="315"/>
-      <c r="AE25" s="322"/>
-      <c r="AF25" s="322"/>
-      <c r="AG25" s="322"/>
-      <c r="AH25" s="322"/>
+      <c r="W25" s="274"/>
+      <c r="X25" s="274"/>
+      <c r="Y25" s="274"/>
+      <c r="Z25" s="274"/>
+      <c r="AA25" s="271"/>
+      <c r="AB25" s="272"/>
+      <c r="AC25" s="272"/>
+      <c r="AD25" s="273"/>
+      <c r="AE25" s="267"/>
+      <c r="AF25" s="267"/>
+      <c r="AG25" s="267"/>
+      <c r="AH25" s="267"/>
       <c r="AI25" s="100"/>
       <c r="AJ25" s="153"/>
       <c r="AK25" s="100"/>
@@ -12218,16 +12215,16 @@
       <c r="AO25" s="167"/>
     </row>
     <row r="26" spans="2:41" customFormat="1" ht="21" customHeight="1">
-      <c r="B26" s="282">
+      <c r="B26" s="288">
         <f>J8*50%</f>
         <v>1000</v>
       </c>
-      <c r="C26" s="282"/>
-      <c r="D26" s="282"/>
-      <c r="E26" s="298" t="s">
+      <c r="C26" s="288"/>
+      <c r="D26" s="288"/>
+      <c r="E26" s="286" t="s">
         <v>119</v>
       </c>
-      <c r="F26" s="300"/>
+      <c r="F26" s="287"/>
       <c r="G26" s="256">
         <v>99.998000000000005</v>
       </c>
@@ -12252,27 +12249,27 @@
       <c r="T26" s="256"/>
       <c r="U26" s="256"/>
       <c r="V26" s="256"/>
-      <c r="W26" s="281">
+      <c r="W26" s="274">
         <f>(AVERAGE(G26:V26)+AVERAGE(G27:V27))/2</f>
         <v>99.998075</v>
       </c>
-      <c r="X26" s="281"/>
-      <c r="Y26" s="281"/>
-      <c r="Z26" s="281"/>
-      <c r="AA26" s="315">
-        <f t="shared" si="0"/>
-        <v>7.4999999998542284E-5</v>
-      </c>
-      <c r="AB26" s="315"/>
-      <c r="AC26" s="315"/>
-      <c r="AD26" s="315"/>
-      <c r="AE26" s="322">
+      <c r="X26" s="274"/>
+      <c r="Y26" s="274"/>
+      <c r="Z26" s="274"/>
+      <c r="AA26" s="268">
+        <f t="shared" ref="AA26:AA37" si="4">_xlfn.STDEV.S(G26:V27)/SQRT(4)</f>
+        <v>6.9436507481591774E-5</v>
+      </c>
+      <c r="AB26" s="269"/>
+      <c r="AC26" s="269"/>
+      <c r="AD26" s="270"/>
+      <c r="AE26" s="267">
         <f>B26-W26</f>
         <v>900.00192500000003</v>
       </c>
-      <c r="AF26" s="322"/>
-      <c r="AG26" s="322"/>
-      <c r="AH26" s="322"/>
+      <c r="AF26" s="267"/>
+      <c r="AG26" s="267"/>
+      <c r="AH26" s="267"/>
       <c r="AI26" s="100"/>
       <c r="AJ26" s="153"/>
       <c r="AK26" s="100"/>
@@ -12282,13 +12279,13 @@
       <c r="AO26" s="167"/>
     </row>
     <row r="27" spans="2:41" customFormat="1" ht="21" customHeight="1">
-      <c r="B27" s="282"/>
-      <c r="C27" s="282"/>
-      <c r="D27" s="282"/>
-      <c r="E27" s="304" t="s">
+      <c r="B27" s="288"/>
+      <c r="C27" s="288"/>
+      <c r="D27" s="288"/>
+      <c r="E27" s="284" t="s">
         <v>120</v>
       </c>
-      <c r="F27" s="305"/>
+      <c r="F27" s="285"/>
       <c r="G27" s="256">
         <v>99.998000000000005</v>
       </c>
@@ -12313,18 +12310,18 @@
       <c r="T27" s="256"/>
       <c r="U27" s="256"/>
       <c r="V27" s="256"/>
-      <c r="W27" s="281"/>
-      <c r="X27" s="281"/>
-      <c r="Y27" s="281"/>
-      <c r="Z27" s="281"/>
-      <c r="AA27" s="315"/>
-      <c r="AB27" s="315"/>
-      <c r="AC27" s="315"/>
-      <c r="AD27" s="315"/>
-      <c r="AE27" s="322"/>
-      <c r="AF27" s="322"/>
-      <c r="AG27" s="322"/>
-      <c r="AH27" s="322"/>
+      <c r="W27" s="274"/>
+      <c r="X27" s="274"/>
+      <c r="Y27" s="274"/>
+      <c r="Z27" s="274"/>
+      <c r="AA27" s="271"/>
+      <c r="AB27" s="272"/>
+      <c r="AC27" s="272"/>
+      <c r="AD27" s="273"/>
+      <c r="AE27" s="267"/>
+      <c r="AF27" s="267"/>
+      <c r="AG27" s="267"/>
+      <c r="AH27" s="267"/>
       <c r="AI27" s="100"/>
       <c r="AJ27" s="153"/>
       <c r="AK27" s="100"/>
@@ -12334,16 +12331,16 @@
       <c r="AO27" s="167"/>
     </row>
     <row r="28" spans="2:41" customFormat="1" ht="21" customHeight="1">
-      <c r="B28" s="282">
+      <c r="B28" s="288">
         <f>J8*60%</f>
         <v>1200</v>
       </c>
-      <c r="C28" s="282"/>
-      <c r="D28" s="282"/>
-      <c r="E28" s="298" t="s">
+      <c r="C28" s="288"/>
+      <c r="D28" s="288"/>
+      <c r="E28" s="286" t="s">
         <v>119</v>
       </c>
-      <c r="F28" s="300"/>
+      <c r="F28" s="287"/>
       <c r="G28" s="256">
         <v>1199.9829999999999</v>
       </c>
@@ -12368,27 +12365,27 @@
       <c r="T28" s="256"/>
       <c r="U28" s="256"/>
       <c r="V28" s="256"/>
-      <c r="W28" s="281">
+      <c r="W28" s="274">
         <f>(AVERAGE(G28:V28)+AVERAGE(G29:V29))/2</f>
         <v>1199.9909499999999</v>
       </c>
-      <c r="X28" s="281"/>
-      <c r="Y28" s="281"/>
-      <c r="Z28" s="281"/>
-      <c r="AA28" s="315">
-        <f t="shared" si="0"/>
-        <v>4.0824829045420924E-4</v>
-      </c>
-      <c r="AB28" s="315"/>
-      <c r="AC28" s="315"/>
-      <c r="AD28" s="315"/>
-      <c r="AE28" s="322">
+      <c r="X28" s="274"/>
+      <c r="Y28" s="274"/>
+      <c r="Z28" s="274"/>
+      <c r="AA28" s="268">
+        <f t="shared" ref="AA28:AA37" si="5">_xlfn.STDEV.S(G28:V29)/SQRT(4)</f>
+        <v>4.7914358122584065E-3</v>
+      </c>
+      <c r="AB28" s="269"/>
+      <c r="AC28" s="269"/>
+      <c r="AD28" s="270"/>
+      <c r="AE28" s="267">
         <f>B28-W28</f>
         <v>9.0500000001156877E-3</v>
       </c>
-      <c r="AF28" s="322"/>
-      <c r="AG28" s="322"/>
-      <c r="AH28" s="322"/>
+      <c r="AF28" s="267"/>
+      <c r="AG28" s="267"/>
+      <c r="AH28" s="267"/>
       <c r="AI28" s="100"/>
       <c r="AJ28" s="153"/>
       <c r="AK28" s="100"/>
@@ -12398,13 +12395,13 @@
       <c r="AO28" s="167"/>
     </row>
     <row r="29" spans="2:41" customFormat="1" ht="21" customHeight="1">
-      <c r="B29" s="282"/>
-      <c r="C29" s="282"/>
-      <c r="D29" s="282"/>
-      <c r="E29" s="304" t="s">
+      <c r="B29" s="288"/>
+      <c r="C29" s="288"/>
+      <c r="D29" s="288"/>
+      <c r="E29" s="284" t="s">
         <v>120</v>
       </c>
-      <c r="F29" s="305"/>
+      <c r="F29" s="285"/>
       <c r="G29" s="256">
         <v>1199.9999</v>
       </c>
@@ -12429,18 +12426,18 @@
       <c r="T29" s="256"/>
       <c r="U29" s="256"/>
       <c r="V29" s="256"/>
-      <c r="W29" s="281"/>
-      <c r="X29" s="281"/>
-      <c r="Y29" s="281"/>
-      <c r="Z29" s="281"/>
-      <c r="AA29" s="315"/>
-      <c r="AB29" s="315"/>
-      <c r="AC29" s="315"/>
-      <c r="AD29" s="315"/>
-      <c r="AE29" s="322"/>
-      <c r="AF29" s="322"/>
-      <c r="AG29" s="322"/>
-      <c r="AH29" s="322"/>
+      <c r="W29" s="274"/>
+      <c r="X29" s="274"/>
+      <c r="Y29" s="274"/>
+      <c r="Z29" s="274"/>
+      <c r="AA29" s="271"/>
+      <c r="AB29" s="272"/>
+      <c r="AC29" s="272"/>
+      <c r="AD29" s="273"/>
+      <c r="AE29" s="267"/>
+      <c r="AF29" s="267"/>
+      <c r="AG29" s="267"/>
+      <c r="AH29" s="267"/>
       <c r="AI29" s="100"/>
       <c r="AJ29" s="153"/>
       <c r="AK29" s="100"/>
@@ -12450,16 +12447,16 @@
       <c r="AO29" s="167"/>
     </row>
     <row r="30" spans="2:41" customFormat="1" ht="21" customHeight="1">
-      <c r="B30" s="282">
+      <c r="B30" s="288">
         <f>J8*70%</f>
         <v>1400</v>
       </c>
-      <c r="C30" s="282"/>
-      <c r="D30" s="282"/>
-      <c r="E30" s="298" t="s">
+      <c r="C30" s="288"/>
+      <c r="D30" s="288"/>
+      <c r="E30" s="286" t="s">
         <v>119</v>
       </c>
-      <c r="F30" s="300"/>
+      <c r="F30" s="287"/>
       <c r="G30" s="256">
         <v>1399.9983999999999</v>
       </c>
@@ -12484,27 +12481,27 @@
       <c r="T30" s="256"/>
       <c r="U30" s="256"/>
       <c r="V30" s="256"/>
-      <c r="W30" s="281">
+      <c r="W30" s="274">
         <f>(AVERAGE(G30:V30)+AVERAGE(G31:V31))/2</f>
         <v>1399.99935</v>
       </c>
-      <c r="X30" s="281"/>
-      <c r="Y30" s="281"/>
-      <c r="Z30" s="281"/>
-      <c r="AA30" s="315">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB30" s="315"/>
-      <c r="AC30" s="315"/>
-      <c r="AD30" s="315"/>
-      <c r="AE30" s="322">
+      <c r="X30" s="274"/>
+      <c r="Y30" s="274"/>
+      <c r="Z30" s="274"/>
+      <c r="AA30" s="268">
+        <f t="shared" ref="AA30:AA37" si="6">_xlfn.STDEV.S(G30:V31)/SQRT(4)</f>
+        <v>5.0779635962767532E-4</v>
+      </c>
+      <c r="AB30" s="269"/>
+      <c r="AC30" s="269"/>
+      <c r="AD30" s="270"/>
+      <c r="AE30" s="267">
         <f>B30-W30</f>
         <v>6.4999999995052349E-4</v>
       </c>
-      <c r="AF30" s="322"/>
-      <c r="AG30" s="322"/>
-      <c r="AH30" s="322"/>
+      <c r="AF30" s="267"/>
+      <c r="AG30" s="267"/>
+      <c r="AH30" s="267"/>
       <c r="AI30" s="100"/>
       <c r="AJ30" s="153"/>
       <c r="AK30" s="100"/>
@@ -12514,13 +12511,13 @@
       <c r="AO30" s="167"/>
     </row>
     <row r="31" spans="2:41" customFormat="1" ht="21" customHeight="1">
-      <c r="B31" s="282"/>
-      <c r="C31" s="282"/>
-      <c r="D31" s="282"/>
-      <c r="E31" s="304" t="s">
+      <c r="B31" s="288"/>
+      <c r="C31" s="288"/>
+      <c r="D31" s="288"/>
+      <c r="E31" s="284" t="s">
         <v>120</v>
       </c>
-      <c r="F31" s="305"/>
+      <c r="F31" s="285"/>
       <c r="G31" s="256">
         <v>1400.0002999999999</v>
       </c>
@@ -12545,18 +12542,18 @@
       <c r="T31" s="256"/>
       <c r="U31" s="256"/>
       <c r="V31" s="256"/>
-      <c r="W31" s="281"/>
-      <c r="X31" s="281"/>
-      <c r="Y31" s="281"/>
-      <c r="Z31" s="281"/>
-      <c r="AA31" s="315"/>
-      <c r="AB31" s="315"/>
-      <c r="AC31" s="315"/>
-      <c r="AD31" s="315"/>
-      <c r="AE31" s="322"/>
-      <c r="AF31" s="322"/>
-      <c r="AG31" s="322"/>
-      <c r="AH31" s="322"/>
+      <c r="W31" s="274"/>
+      <c r="X31" s="274"/>
+      <c r="Y31" s="274"/>
+      <c r="Z31" s="274"/>
+      <c r="AA31" s="271"/>
+      <c r="AB31" s="272"/>
+      <c r="AC31" s="272"/>
+      <c r="AD31" s="273"/>
+      <c r="AE31" s="267"/>
+      <c r="AF31" s="267"/>
+      <c r="AG31" s="267"/>
+      <c r="AH31" s="267"/>
       <c r="AI31" s="100"/>
       <c r="AJ31" s="153"/>
       <c r="AK31" s="100"/>
@@ -12566,16 +12563,16 @@
       <c r="AO31" s="167"/>
     </row>
     <row r="32" spans="2:41" customFormat="1" ht="21" customHeight="1">
-      <c r="B32" s="282">
+      <c r="B32" s="288">
         <f>J8*80%</f>
         <v>1600</v>
       </c>
-      <c r="C32" s="282"/>
-      <c r="D32" s="282"/>
-      <c r="E32" s="298" t="s">
+      <c r="C32" s="288"/>
+      <c r="D32" s="288"/>
+      <c r="E32" s="286" t="s">
         <v>119</v>
       </c>
-      <c r="F32" s="300"/>
+      <c r="F32" s="287"/>
       <c r="G32" s="256">
         <v>1599.998</v>
       </c>
@@ -12600,27 +12597,27 @@
       <c r="T32" s="256"/>
       <c r="U32" s="256"/>
       <c r="V32" s="256"/>
-      <c r="W32" s="281">
+      <c r="W32" s="274">
         <f>(AVERAGE(G32:V32)+AVERAGE(G33:V33))/2</f>
         <v>1600.0001000000002</v>
       </c>
-      <c r="X32" s="281"/>
-      <c r="Y32" s="281"/>
-      <c r="Z32" s="281"/>
-      <c r="AA32" s="315">
-        <f t="shared" si="0"/>
-        <v>2.4999999993724487E-5</v>
-      </c>
-      <c r="AB32" s="315"/>
-      <c r="AC32" s="315"/>
-      <c r="AD32" s="315"/>
-      <c r="AE32" s="322">
+      <c r="X32" s="274"/>
+      <c r="Y32" s="274"/>
+      <c r="Z32" s="274"/>
+      <c r="AA32" s="268">
+        <f t="shared" ref="AA32:AA37" si="7">_xlfn.STDEV.S(G32:V33)/SQRT(4)</f>
+        <v>1.1370387604797618E-3</v>
+      </c>
+      <c r="AB32" s="269"/>
+      <c r="AC32" s="269"/>
+      <c r="AD32" s="270"/>
+      <c r="AE32" s="267">
         <f>B32-W32</f>
         <v>-1.0000000020227162E-4</v>
       </c>
-      <c r="AF32" s="322"/>
-      <c r="AG32" s="322"/>
-      <c r="AH32" s="322"/>
+      <c r="AF32" s="267"/>
+      <c r="AG32" s="267"/>
+      <c r="AH32" s="267"/>
       <c r="AI32" s="100"/>
       <c r="AJ32" s="153"/>
       <c r="AK32" s="100"/>
@@ -12630,13 +12627,13 @@
       <c r="AO32" s="167"/>
     </row>
     <row r="33" spans="2:41" customFormat="1" ht="21" customHeight="1">
-      <c r="B33" s="282"/>
-      <c r="C33" s="282"/>
-      <c r="D33" s="282"/>
-      <c r="E33" s="304" t="s">
+      <c r="B33" s="288"/>
+      <c r="C33" s="288"/>
+      <c r="D33" s="288"/>
+      <c r="E33" s="284" t="s">
         <v>120</v>
       </c>
-      <c r="F33" s="305"/>
+      <c r="F33" s="285"/>
       <c r="G33" s="256">
         <v>1600.0023000000001</v>
       </c>
@@ -12661,18 +12658,18 @@
       <c r="T33" s="256"/>
       <c r="U33" s="256"/>
       <c r="V33" s="256"/>
-      <c r="W33" s="281"/>
-      <c r="X33" s="281"/>
-      <c r="Y33" s="281"/>
-      <c r="Z33" s="281"/>
-      <c r="AA33" s="315"/>
-      <c r="AB33" s="315"/>
-      <c r="AC33" s="315"/>
-      <c r="AD33" s="315"/>
-      <c r="AE33" s="322"/>
-      <c r="AF33" s="322"/>
-      <c r="AG33" s="322"/>
-      <c r="AH33" s="322"/>
+      <c r="W33" s="274"/>
+      <c r="X33" s="274"/>
+      <c r="Y33" s="274"/>
+      <c r="Z33" s="274"/>
+      <c r="AA33" s="271"/>
+      <c r="AB33" s="272"/>
+      <c r="AC33" s="272"/>
+      <c r="AD33" s="273"/>
+      <c r="AE33" s="267"/>
+      <c r="AF33" s="267"/>
+      <c r="AG33" s="267"/>
+      <c r="AH33" s="267"/>
       <c r="AI33" s="100"/>
       <c r="AJ33" s="153"/>
       <c r="AK33" s="100"/>
@@ -12682,16 +12679,16 @@
       <c r="AO33" s="167"/>
     </row>
     <row r="34" spans="2:41" customFormat="1" ht="21" customHeight="1">
-      <c r="B34" s="282">
+      <c r="B34" s="288">
         <f>J8*90%</f>
         <v>1800</v>
       </c>
-      <c r="C34" s="282"/>
-      <c r="D34" s="282"/>
-      <c r="E34" s="298" t="s">
+      <c r="C34" s="288"/>
+      <c r="D34" s="288"/>
+      <c r="E34" s="286" t="s">
         <v>119</v>
       </c>
-      <c r="F34" s="300"/>
+      <c r="F34" s="287"/>
       <c r="G34" s="256">
         <v>1799.9983</v>
       </c>
@@ -12716,27 +12713,27 @@
       <c r="T34" s="256"/>
       <c r="U34" s="256"/>
       <c r="V34" s="256"/>
-      <c r="W34" s="281">
+      <c r="W34" s="274">
         <f>(AVERAGE(G34:V34)+AVERAGE(G35:V35))/2</f>
         <v>1799.9997874999999</v>
       </c>
-      <c r="X34" s="281"/>
-      <c r="Y34" s="281"/>
-      <c r="Z34" s="281"/>
-      <c r="AA34" s="315">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB34" s="315"/>
-      <c r="AC34" s="315"/>
-      <c r="AD34" s="315"/>
-      <c r="AE34" s="322">
+      <c r="X34" s="274"/>
+      <c r="Y34" s="274"/>
+      <c r="Z34" s="274"/>
+      <c r="AA34" s="268">
+        <f t="shared" ref="AA34:AA37" si="8">_xlfn.STDEV.S(G34:V35)/SQRT(4)</f>
+        <v>7.979605700951741E-4</v>
+      </c>
+      <c r="AB34" s="269"/>
+      <c r="AC34" s="269"/>
+      <c r="AD34" s="270"/>
+      <c r="AE34" s="267">
         <f>B34-W34</f>
         <v>2.1250000008876668E-4</v>
       </c>
-      <c r="AF34" s="322"/>
-      <c r="AG34" s="322"/>
-      <c r="AH34" s="322"/>
+      <c r="AF34" s="267"/>
+      <c r="AG34" s="267"/>
+      <c r="AH34" s="267"/>
       <c r="AI34" s="100"/>
       <c r="AJ34" s="153"/>
       <c r="AK34" s="100"/>
@@ -12746,13 +12743,13 @@
       <c r="AO34" s="167"/>
     </row>
     <row r="35" spans="2:41" customFormat="1" ht="21" customHeight="1">
-      <c r="B35" s="282"/>
-      <c r="C35" s="282"/>
-      <c r="D35" s="282"/>
-      <c r="E35" s="304" t="s">
+      <c r="B35" s="288"/>
+      <c r="C35" s="288"/>
+      <c r="D35" s="288"/>
+      <c r="E35" s="284" t="s">
         <v>120</v>
       </c>
-      <c r="F35" s="305"/>
+      <c r="F35" s="285"/>
       <c r="G35" s="256">
         <v>1800.0012999999999</v>
       </c>
@@ -12777,18 +12774,18 @@
       <c r="T35" s="256"/>
       <c r="U35" s="256"/>
       <c r="V35" s="256"/>
-      <c r="W35" s="281"/>
-      <c r="X35" s="281"/>
-      <c r="Y35" s="281"/>
-      <c r="Z35" s="281"/>
-      <c r="AA35" s="315"/>
-      <c r="AB35" s="315"/>
-      <c r="AC35" s="315"/>
-      <c r="AD35" s="315"/>
-      <c r="AE35" s="322"/>
-      <c r="AF35" s="322"/>
-      <c r="AG35" s="322"/>
-      <c r="AH35" s="322"/>
+      <c r="W35" s="274"/>
+      <c r="X35" s="274"/>
+      <c r="Y35" s="274"/>
+      <c r="Z35" s="274"/>
+      <c r="AA35" s="271"/>
+      <c r="AB35" s="272"/>
+      <c r="AC35" s="272"/>
+      <c r="AD35" s="273"/>
+      <c r="AE35" s="267"/>
+      <c r="AF35" s="267"/>
+      <c r="AG35" s="267"/>
+      <c r="AH35" s="267"/>
       <c r="AI35" s="100"/>
       <c r="AJ35" s="153"/>
       <c r="AK35" s="100"/>
@@ -12798,16 +12795,16 @@
       <c r="AO35" s="167"/>
     </row>
     <row r="36" spans="2:41" customFormat="1" ht="21" customHeight="1">
-      <c r="B36" s="282">
+      <c r="B36" s="288">
         <f>J8*100%</f>
         <v>2000</v>
       </c>
-      <c r="C36" s="282"/>
-      <c r="D36" s="282"/>
-      <c r="E36" s="298" t="s">
+      <c r="C36" s="288"/>
+      <c r="D36" s="288"/>
+      <c r="E36" s="286" t="s">
         <v>119</v>
       </c>
-      <c r="F36" s="300"/>
+      <c r="F36" s="287"/>
       <c r="G36" s="256">
         <v>1999.998</v>
       </c>
@@ -12832,27 +12829,27 @@
       <c r="T36" s="256"/>
       <c r="U36" s="256"/>
       <c r="V36" s="256"/>
-      <c r="W36" s="281">
+      <c r="W36" s="274">
         <f>(AVERAGE(G36:V36)+AVERAGE(G37:V37))/2</f>
         <v>1999.9982</v>
       </c>
-      <c r="X36" s="281"/>
-      <c r="Y36" s="281"/>
-      <c r="Z36" s="281"/>
-      <c r="AA36" s="315">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB36" s="315"/>
-      <c r="AC36" s="315"/>
-      <c r="AD36" s="315"/>
-      <c r="AE36" s="322">
+      <c r="X36" s="274"/>
+      <c r="Y36" s="274"/>
+      <c r="Z36" s="274"/>
+      <c r="AA36" s="268">
+        <f t="shared" ref="AA36:AA37" si="9">_xlfn.STDEV.S(G36:V37)/SQRT(4)</f>
+        <v>1.4392458342350997E-4</v>
+      </c>
+      <c r="AB36" s="269"/>
+      <c r="AC36" s="269"/>
+      <c r="AD36" s="270"/>
+      <c r="AE36" s="267">
         <f>B36-W36</f>
         <v>1.8000000000029104E-3</v>
       </c>
-      <c r="AF36" s="322"/>
-      <c r="AG36" s="322"/>
-      <c r="AH36" s="322"/>
+      <c r="AF36" s="267"/>
+      <c r="AG36" s="267"/>
+      <c r="AH36" s="267"/>
       <c r="AI36" s="100"/>
       <c r="AJ36" s="153"/>
       <c r="AK36" s="100"/>
@@ -12862,13 +12859,13 @@
       <c r="AO36" s="167"/>
     </row>
     <row r="37" spans="2:41" customFormat="1" ht="21" customHeight="1">
-      <c r="B37" s="282"/>
-      <c r="C37" s="282"/>
-      <c r="D37" s="282"/>
-      <c r="E37" s="304" t="s">
+      <c r="B37" s="288"/>
+      <c r="C37" s="288"/>
+      <c r="D37" s="288"/>
+      <c r="E37" s="284" t="s">
         <v>120</v>
       </c>
-      <c r="F37" s="305"/>
+      <c r="F37" s="285"/>
       <c r="G37" s="256">
         <v>1999.9981</v>
       </c>
@@ -12893,18 +12890,18 @@
       <c r="T37" s="256"/>
       <c r="U37" s="256"/>
       <c r="V37" s="256"/>
-      <c r="W37" s="281"/>
-      <c r="X37" s="281"/>
-      <c r="Y37" s="281"/>
-      <c r="Z37" s="281"/>
-      <c r="AA37" s="315"/>
-      <c r="AB37" s="315"/>
-      <c r="AC37" s="315"/>
-      <c r="AD37" s="315"/>
-      <c r="AE37" s="322"/>
-      <c r="AF37" s="322"/>
-      <c r="AG37" s="322"/>
-      <c r="AH37" s="322"/>
+      <c r="W37" s="274"/>
+      <c r="X37" s="274"/>
+      <c r="Y37" s="274"/>
+      <c r="Z37" s="274"/>
+      <c r="AA37" s="271"/>
+      <c r="AB37" s="272"/>
+      <c r="AC37" s="272"/>
+      <c r="AD37" s="273"/>
+      <c r="AE37" s="267"/>
+      <c r="AF37" s="267"/>
+      <c r="AG37" s="267"/>
+      <c r="AH37" s="267"/>
       <c r="AI37" s="100"/>
       <c r="AJ37" s="153"/>
       <c r="AK37" s="100"/>
@@ -13016,6 +13013,166 @@
     </row>
   </sheetData>
   <mergeCells count="184">
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="S16:V16"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="S28:V28"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="S32:V32"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="AJ14:AJ15"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="W14:Z15"/>
+    <mergeCell ref="AE14:AH15"/>
+    <mergeCell ref="AA14:AD15"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="R7:Y7"/>
+    <mergeCell ref="G7:M7"/>
+    <mergeCell ref="AB7:AF7"/>
+    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G14:V14"/>
+    <mergeCell ref="W26:Z27"/>
+    <mergeCell ref="W24:Z25"/>
+    <mergeCell ref="W36:Z37"/>
+    <mergeCell ref="W34:Z35"/>
+    <mergeCell ref="B26:D27"/>
+    <mergeCell ref="B24:D25"/>
+    <mergeCell ref="B14:D15"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="W32:Z33"/>
+    <mergeCell ref="W30:Z31"/>
+    <mergeCell ref="W28:Z29"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="S34:V34"/>
+    <mergeCell ref="S36:V36"/>
+    <mergeCell ref="B1:N2"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="B4:N4"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="AD2:AH2"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="I5:AF5"/>
+    <mergeCell ref="I6:R6"/>
+    <mergeCell ref="X6:AF6"/>
+    <mergeCell ref="B16:D17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="B20:D21"/>
+    <mergeCell ref="B18:D19"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="B36:D37"/>
+    <mergeCell ref="B28:D29"/>
+    <mergeCell ref="B30:D31"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="B34:D35"/>
+    <mergeCell ref="W18:Z19"/>
+    <mergeCell ref="W22:Z23"/>
+    <mergeCell ref="W20:Z21"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="W16:Z17"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="AA30:AD31"/>
+    <mergeCell ref="AA32:AD33"/>
+    <mergeCell ref="AA34:AD35"/>
+    <mergeCell ref="AA36:AD37"/>
+    <mergeCell ref="AE16:AH17"/>
+    <mergeCell ref="AE36:AH37"/>
+    <mergeCell ref="AE34:AH35"/>
+    <mergeCell ref="AE32:AH33"/>
+    <mergeCell ref="AE30:AH31"/>
+    <mergeCell ref="AE28:AH29"/>
+    <mergeCell ref="AE26:AH27"/>
+    <mergeCell ref="AE24:AH25"/>
+    <mergeCell ref="AE22:AH23"/>
+    <mergeCell ref="AE20:AH21"/>
+    <mergeCell ref="AE18:AH19"/>
+    <mergeCell ref="AA22:AD23"/>
+    <mergeCell ref="AA20:AD21"/>
+    <mergeCell ref="AA18:AD19"/>
+    <mergeCell ref="AA24:AD25"/>
+    <mergeCell ref="AA26:AD27"/>
+    <mergeCell ref="AA28:AD29"/>
+    <mergeCell ref="AA16:AD17"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="S37:V37"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="S35:V35"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="S33:V33"/>
     <mergeCell ref="G25:J25"/>
     <mergeCell ref="K25:N25"/>
     <mergeCell ref="O25:R25"/>
@@ -13040,166 +13197,6 @@
     <mergeCell ref="G23:J23"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="O23:R23"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="S37:V37"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="S35:V35"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="S33:V33"/>
-    <mergeCell ref="AA30:AD31"/>
-    <mergeCell ref="AA32:AD33"/>
-    <mergeCell ref="AA34:AD35"/>
-    <mergeCell ref="AA36:AD37"/>
-    <mergeCell ref="AE16:AH17"/>
-    <mergeCell ref="AE36:AH37"/>
-    <mergeCell ref="AE34:AH35"/>
-    <mergeCell ref="AE32:AH33"/>
-    <mergeCell ref="AE30:AH31"/>
-    <mergeCell ref="AE28:AH29"/>
-    <mergeCell ref="AE26:AH27"/>
-    <mergeCell ref="AE24:AH25"/>
-    <mergeCell ref="AE22:AH23"/>
-    <mergeCell ref="AE20:AH21"/>
-    <mergeCell ref="AE18:AH19"/>
-    <mergeCell ref="AA22:AD23"/>
-    <mergeCell ref="AA20:AD21"/>
-    <mergeCell ref="AA18:AD19"/>
-    <mergeCell ref="AA24:AD25"/>
-    <mergeCell ref="AA26:AD27"/>
-    <mergeCell ref="AA28:AD29"/>
-    <mergeCell ref="AA16:AD17"/>
-    <mergeCell ref="W18:Z19"/>
-    <mergeCell ref="W22:Z23"/>
-    <mergeCell ref="W20:Z21"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="S17:V17"/>
-    <mergeCell ref="W16:Z17"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="S19:V19"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="B36:D37"/>
-    <mergeCell ref="B28:D29"/>
-    <mergeCell ref="B30:D31"/>
-    <mergeCell ref="B32:D33"/>
-    <mergeCell ref="B34:D35"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="B16:D17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="B20:D21"/>
-    <mergeCell ref="B18:D19"/>
-    <mergeCell ref="B1:N2"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="B4:N4"/>
-    <mergeCell ref="T2:X2"/>
-    <mergeCell ref="AD2:AH2"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="T1:X1"/>
-    <mergeCell ref="I5:AF5"/>
-    <mergeCell ref="I6:R6"/>
-    <mergeCell ref="X6:AF6"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="W32:Z33"/>
-    <mergeCell ref="W30:Z31"/>
-    <mergeCell ref="W28:Z29"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="S34:V34"/>
-    <mergeCell ref="S36:V36"/>
-    <mergeCell ref="W26:Z27"/>
-    <mergeCell ref="W24:Z25"/>
-    <mergeCell ref="W36:Z37"/>
-    <mergeCell ref="W34:Z35"/>
-    <mergeCell ref="B26:D27"/>
-    <mergeCell ref="B24:D25"/>
-    <mergeCell ref="B14:D15"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="AJ14:AJ15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="W14:Z15"/>
-    <mergeCell ref="AE14:AH15"/>
-    <mergeCell ref="AA14:AD15"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="R7:Y7"/>
-    <mergeCell ref="G7:M7"/>
-    <mergeCell ref="AB7:AF7"/>
-    <mergeCell ref="S15:V15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="G14:V14"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="S16:V16"/>
-    <mergeCell ref="S18:V18"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="S22:V22"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="S26:V26"/>
-    <mergeCell ref="S28:V28"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="S32:V32"/>
-    <mergeCell ref="S23:V23"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.43307086614173229" top="0.51181102362204722" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="91" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -13579,37 +13576,37 @@
     <row r="1" spans="1:256" ht="12.95" customHeight="1"/>
     <row r="2" spans="1:256" ht="12.95" customHeight="1"/>
     <row r="3" spans="1:256" ht="35.25" customHeight="1">
-      <c r="A3" s="333" t="s">
+      <c r="A3" s="332" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="333"/>
-      <c r="C3" s="333"/>
-      <c r="D3" s="333"/>
-      <c r="E3" s="333"/>
-      <c r="F3" s="333"/>
-      <c r="G3" s="333"/>
-      <c r="H3" s="333"/>
-      <c r="I3" s="333"/>
-      <c r="J3" s="333"/>
-      <c r="K3" s="333"/>
-      <c r="L3" s="333"/>
-      <c r="M3" s="333"/>
-      <c r="N3" s="333"/>
-      <c r="O3" s="333"/>
-      <c r="P3" s="333"/>
-      <c r="Q3" s="333"/>
-      <c r="R3" s="333"/>
-      <c r="S3" s="333"/>
-      <c r="T3" s="333"/>
-      <c r="U3" s="333"/>
-      <c r="V3" s="333"/>
-      <c r="W3" s="333"/>
-      <c r="X3" s="333"/>
-      <c r="Y3" s="333"/>
-      <c r="Z3" s="333"/>
-      <c r="AA3" s="333"/>
-      <c r="AB3" s="333"/>
-      <c r="AC3" s="333"/>
+      <c r="B3" s="332"/>
+      <c r="C3" s="332"/>
+      <c r="D3" s="332"/>
+      <c r="E3" s="332"/>
+      <c r="F3" s="332"/>
+      <c r="G3" s="332"/>
+      <c r="H3" s="332"/>
+      <c r="I3" s="332"/>
+      <c r="J3" s="332"/>
+      <c r="K3" s="332"/>
+      <c r="L3" s="332"/>
+      <c r="M3" s="332"/>
+      <c r="N3" s="332"/>
+      <c r="O3" s="332"/>
+      <c r="P3" s="332"/>
+      <c r="Q3" s="332"/>
+      <c r="R3" s="332"/>
+      <c r="S3" s="332"/>
+      <c r="T3" s="332"/>
+      <c r="U3" s="332"/>
+      <c r="V3" s="332"/>
+      <c r="W3" s="332"/>
+      <c r="X3" s="332"/>
+      <c r="Y3" s="332"/>
+      <c r="Z3" s="332"/>
+      <c r="AA3" s="332"/>
+      <c r="AB3" s="332"/>
+      <c r="AC3" s="332"/>
     </row>
     <row r="4" spans="1:256" ht="19.5" customHeight="1">
       <c r="A4" s="17"/>
@@ -16230,13 +16227,13 @@
       <c r="I14" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="334">
+      <c r="J14" s="333">
         <f>'Data Record'!G7</f>
         <v>123</v>
       </c>
-      <c r="K14" s="334"/>
-      <c r="L14" s="334"/>
-      <c r="M14" s="334"/>
+      <c r="K14" s="333"/>
+      <c r="L14" s="333"/>
+      <c r="M14" s="333"/>
       <c r="N14" s="25"/>
       <c r="O14" s="18"/>
       <c r="P14" s="25"/>
@@ -16495,12 +16492,12 @@
       <c r="I15" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="338">
+      <c r="J15" s="337">
         <f>'Data Record'!R7</f>
         <v>123456</v>
       </c>
-      <c r="K15" s="338"/>
-      <c r="L15" s="338"/>
+      <c r="K15" s="337"/>
+      <c r="L15" s="337"/>
       <c r="M15" s="227"/>
       <c r="N15" s="227"/>
       <c r="O15" s="18"/>
@@ -17560,13 +17557,13 @@
       <c r="Y19" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="Z19" s="340">
+      <c r="Z19" s="339">
         <f>'Data Record'!T2</f>
         <v>42450</v>
       </c>
-      <c r="AA19" s="340"/>
-      <c r="AB19" s="340"/>
-      <c r="AC19" s="340"/>
+      <c r="AA19" s="339"/>
+      <c r="AB19" s="339"/>
+      <c r="AC19" s="339"/>
       <c r="AD19" s="18"/>
       <c r="AE19" s="18"/>
       <c r="AF19" s="18"/>
@@ -17826,13 +17823,13 @@
       <c r="Y20" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="Z20" s="340">
+      <c r="Z20" s="339">
         <f>'Data Record'!AD2</f>
         <v>42450</v>
       </c>
-      <c r="AA20" s="340"/>
-      <c r="AB20" s="340"/>
-      <c r="AC20" s="340"/>
+      <c r="AA20" s="339"/>
+      <c r="AB20" s="339"/>
+      <c r="AC20" s="339"/>
       <c r="AD20" s="18"/>
       <c r="AE20" s="18"/>
       <c r="AF20" s="18"/>
@@ -18092,13 +18089,13 @@
       <c r="Y21" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="Z21" s="341">
+      <c r="Z21" s="340">
         <f>Z20+365</f>
         <v>42815</v>
       </c>
-      <c r="AA21" s="341"/>
-      <c r="AB21" s="341"/>
-      <c r="AC21" s="341"/>
+      <c r="AA21" s="340"/>
+      <c r="AB21" s="340"/>
+      <c r="AC21" s="340"/>
       <c r="AD21" s="18"/>
       <c r="AE21" s="18"/>
       <c r="AF21" s="18"/>
@@ -21712,12 +21709,12 @@
       <c r="G35" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="H35" s="339">
+      <c r="H35" s="338">
         <f>Z20+1</f>
         <v>42451</v>
       </c>
-      <c r="I35" s="339"/>
-      <c r="J35" s="339"/>
+      <c r="I35" s="338"/>
+      <c r="J35" s="338"/>
       <c r="K35" s="235"/>
       <c r="L35" s="216"/>
       <c r="M35" s="216"/>
@@ -22249,17 +22246,17 @@
         <v>3</v>
       </c>
       <c r="R37" s="216"/>
-      <c r="U37" s="335" t="str">
+      <c r="U37" s="334" t="str">
         <f>IF(Q37=1,"( Mr.Sombut Srikampa )",IF(Q37=3,"( Mr. Natthaphol Boonmee )"))</f>
         <v>( Mr. Natthaphol Boonmee )</v>
       </c>
-      <c r="V37" s="335"/>
-      <c r="W37" s="335"/>
-      <c r="X37" s="335"/>
-      <c r="Y37" s="335"/>
-      <c r="Z37" s="335"/>
-      <c r="AA37" s="335"/>
-      <c r="AB37" s="335"/>
+      <c r="V37" s="334"/>
+      <c r="W37" s="334"/>
+      <c r="X37" s="334"/>
+      <c r="Y37" s="334"/>
+      <c r="Z37" s="334"/>
+      <c r="AA37" s="334"/>
+      <c r="AB37" s="334"/>
       <c r="AC37" s="18"/>
       <c r="AD37" s="18"/>
       <c r="AE37" s="234"/>
@@ -22508,16 +22505,16 @@
       <c r="P38" s="216"/>
       <c r="Q38" s="216"/>
       <c r="R38" s="216"/>
-      <c r="U38" s="336" t="s">
+      <c r="U38" s="335" t="s">
         <v>28</v>
       </c>
-      <c r="V38" s="336"/>
-      <c r="W38" s="336"/>
-      <c r="X38" s="336"/>
-      <c r="Y38" s="336"/>
-      <c r="Z38" s="336"/>
-      <c r="AA38" s="336"/>
-      <c r="AB38" s="336"/>
+      <c r="V38" s="335"/>
+      <c r="W38" s="335"/>
+      <c r="X38" s="335"/>
+      <c r="Y38" s="335"/>
+      <c r="Z38" s="335"/>
+      <c r="AA38" s="335"/>
+      <c r="AB38" s="335"/>
       <c r="AC38" s="242"/>
       <c r="AD38" s="243"/>
       <c r="AE38" s="244"/>
@@ -23006,28 +23003,28 @@
       <c r="IV39" s="18"/>
     </row>
     <row r="40" spans="1:256">
-      <c r="A40" s="337"/>
-      <c r="B40" s="337"/>
-      <c r="C40" s="337"/>
-      <c r="D40" s="337"/>
-      <c r="E40" s="337"/>
-      <c r="F40" s="337"/>
-      <c r="G40" s="337"/>
-      <c r="H40" s="337"/>
-      <c r="I40" s="337"/>
-      <c r="J40" s="337"/>
-      <c r="K40" s="337"/>
-      <c r="L40" s="337"/>
-      <c r="M40" s="337"/>
-      <c r="N40" s="337"/>
-      <c r="O40" s="337"/>
-      <c r="P40" s="337"/>
-      <c r="Q40" s="337"/>
-      <c r="R40" s="337"/>
-      <c r="S40" s="337"/>
-      <c r="T40" s="337"/>
-      <c r="U40" s="337"/>
-      <c r="V40" s="337"/>
+      <c r="A40" s="336"/>
+      <c r="B40" s="336"/>
+      <c r="C40" s="336"/>
+      <c r="D40" s="336"/>
+      <c r="E40" s="336"/>
+      <c r="F40" s="336"/>
+      <c r="G40" s="336"/>
+      <c r="H40" s="336"/>
+      <c r="I40" s="336"/>
+      <c r="J40" s="336"/>
+      <c r="K40" s="336"/>
+      <c r="L40" s="336"/>
+      <c r="M40" s="336"/>
+      <c r="N40" s="336"/>
+      <c r="O40" s="336"/>
+      <c r="P40" s="336"/>
+      <c r="Q40" s="336"/>
+      <c r="R40" s="336"/>
+      <c r="S40" s="336"/>
+      <c r="T40" s="336"/>
+      <c r="U40" s="336"/>
+      <c r="V40" s="336"/>
       <c r="W40" s="82"/>
       <c r="X40" s="18"/>
       <c r="Y40" s="18"/>
@@ -23381,31 +23378,31 @@
       <c r="V2" s="16"/>
     </row>
     <row r="3" spans="1:23" ht="34.5" customHeight="1">
-      <c r="A3" s="360" t="s">
+      <c r="A3" s="344" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="360"/>
-      <c r="C3" s="360"/>
-      <c r="D3" s="360"/>
-      <c r="E3" s="360"/>
-      <c r="F3" s="360"/>
-      <c r="G3" s="360"/>
-      <c r="H3" s="360"/>
-      <c r="I3" s="360"/>
-      <c r="J3" s="360"/>
-      <c r="K3" s="360"/>
-      <c r="L3" s="360"/>
-      <c r="M3" s="360"/>
-      <c r="N3" s="360"/>
-      <c r="O3" s="360"/>
-      <c r="P3" s="360"/>
-      <c r="Q3" s="360"/>
-      <c r="R3" s="360"/>
-      <c r="S3" s="360"/>
-      <c r="T3" s="360"/>
-      <c r="U3" s="360"/>
-      <c r="V3" s="360"/>
-      <c r="W3" s="360"/>
+      <c r="B3" s="344"/>
+      <c r="C3" s="344"/>
+      <c r="D3" s="344"/>
+      <c r="E3" s="344"/>
+      <c r="F3" s="344"/>
+      <c r="G3" s="344"/>
+      <c r="H3" s="344"/>
+      <c r="I3" s="344"/>
+      <c r="J3" s="344"/>
+      <c r="K3" s="344"/>
+      <c r="L3" s="344"/>
+      <c r="M3" s="344"/>
+      <c r="N3" s="344"/>
+      <c r="O3" s="344"/>
+      <c r="P3" s="344"/>
+      <c r="Q3" s="344"/>
+      <c r="R3" s="344"/>
+      <c r="S3" s="344"/>
+      <c r="T3" s="344"/>
+      <c r="U3" s="344"/>
+      <c r="V3" s="344"/>
+      <c r="W3" s="344"/>
     </row>
     <row r="4" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="135"/>
@@ -23517,18 +23514,18 @@
       <c r="D8" s="31"/>
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
-      <c r="G8" s="344" t="s">
+      <c r="G8" s="362" t="s">
         <v>116</v>
       </c>
-      <c r="H8" s="344"/>
-      <c r="I8" s="344"/>
-      <c r="J8" s="344"/>
-      <c r="K8" s="344"/>
-      <c r="L8" s="344"/>
-      <c r="M8" s="344"/>
-      <c r="N8" s="344"/>
-      <c r="O8" s="344"/>
-      <c r="P8" s="344"/>
+      <c r="H8" s="362"/>
+      <c r="I8" s="362"/>
+      <c r="J8" s="362"/>
+      <c r="K8" s="362"/>
+      <c r="L8" s="362"/>
+      <c r="M8" s="362"/>
+      <c r="N8" s="362"/>
+      <c r="O8" s="362"/>
+      <c r="P8" s="362"/>
       <c r="Q8" s="34"/>
       <c r="R8" s="34"/>
       <c r="S8" s="34"/>
@@ -23543,16 +23540,16 @@
       <c r="D9" s="31"/>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
-      <c r="G9" s="344"/>
-      <c r="H9" s="344"/>
-      <c r="I9" s="344"/>
-      <c r="J9" s="344"/>
-      <c r="K9" s="344"/>
-      <c r="L9" s="344"/>
-      <c r="M9" s="344"/>
-      <c r="N9" s="344"/>
-      <c r="O9" s="344"/>
-      <c r="P9" s="344"/>
+      <c r="G9" s="362"/>
+      <c r="H9" s="362"/>
+      <c r="I9" s="362"/>
+      <c r="J9" s="362"/>
+      <c r="K9" s="362"/>
+      <c r="L9" s="362"/>
+      <c r="M9" s="362"/>
+      <c r="N9" s="362"/>
+      <c r="O9" s="362"/>
+      <c r="P9" s="362"/>
       <c r="Q9" s="34"/>
       <c r="R9" s="34"/>
       <c r="S9" s="34"/>
@@ -23586,71 +23583,71 @@
     </row>
     <row r="11" spans="1:23" ht="21" customHeight="1">
       <c r="A11" s="19"/>
-      <c r="B11" s="345" t="s">
+      <c r="B11" s="341" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="346"/>
-      <c r="D11" s="346"/>
-      <c r="E11" s="346"/>
-      <c r="F11" s="346"/>
-      <c r="G11" s="346"/>
-      <c r="H11" s="347"/>
-      <c r="I11" s="345" t="s">
+      <c r="C11" s="342"/>
+      <c r="D11" s="342"/>
+      <c r="E11" s="342"/>
+      <c r="F11" s="342"/>
+      <c r="G11" s="342"/>
+      <c r="H11" s="343"/>
+      <c r="I11" s="341" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="346"/>
-      <c r="K11" s="347"/>
-      <c r="L11" s="345" t="s">
+      <c r="J11" s="342"/>
+      <c r="K11" s="343"/>
+      <c r="L11" s="341" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="346"/>
-      <c r="N11" s="347"/>
-      <c r="O11" s="345" t="s">
+      <c r="M11" s="342"/>
+      <c r="N11" s="343"/>
+      <c r="O11" s="341" t="s">
         <v>31</v>
       </c>
-      <c r="P11" s="346"/>
-      <c r="Q11" s="346"/>
-      <c r="R11" s="347"/>
-      <c r="S11" s="345" t="s">
+      <c r="P11" s="342"/>
+      <c r="Q11" s="342"/>
+      <c r="R11" s="343"/>
+      <c r="S11" s="341" t="s">
         <v>32</v>
       </c>
-      <c r="T11" s="346"/>
-      <c r="U11" s="346"/>
-      <c r="V11" s="347"/>
+      <c r="T11" s="342"/>
+      <c r="U11" s="342"/>
+      <c r="V11" s="343"/>
     </row>
     <row r="12" spans="1:23" ht="21" customHeight="1">
       <c r="A12" s="19"/>
-      <c r="B12" s="348" t="s">
+      <c r="B12" s="363" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="349"/>
-      <c r="D12" s="349"/>
-      <c r="E12" s="349"/>
-      <c r="F12" s="349"/>
-      <c r="G12" s="349"/>
-      <c r="H12" s="350"/>
-      <c r="I12" s="351" t="s">
+      <c r="C12" s="364"/>
+      <c r="D12" s="364"/>
+      <c r="E12" s="364"/>
+      <c r="F12" s="364"/>
+      <c r="G12" s="364"/>
+      <c r="H12" s="365"/>
+      <c r="I12" s="348" t="s">
         <v>87</v>
       </c>
-      <c r="J12" s="352"/>
-      <c r="K12" s="353"/>
-      <c r="L12" s="361">
+      <c r="J12" s="349"/>
+      <c r="K12" s="350"/>
+      <c r="L12" s="345">
         <v>110021</v>
       </c>
-      <c r="M12" s="362"/>
-      <c r="N12" s="363"/>
-      <c r="O12" s="351" t="s">
+      <c r="M12" s="346"/>
+      <c r="N12" s="347"/>
+      <c r="O12" s="348" t="s">
         <v>88</v>
       </c>
-      <c r="P12" s="352"/>
-      <c r="Q12" s="352"/>
-      <c r="R12" s="353"/>
-      <c r="S12" s="364">
+      <c r="P12" s="349"/>
+      <c r="Q12" s="349"/>
+      <c r="R12" s="350"/>
+      <c r="S12" s="351">
         <v>42547</v>
       </c>
-      <c r="T12" s="365"/>
-      <c r="U12" s="365"/>
-      <c r="V12" s="366"/>
+      <c r="T12" s="352"/>
+      <c r="U12" s="352"/>
+      <c r="V12" s="353"/>
     </row>
     <row r="13" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="19"/>
@@ -23764,10 +23761,10 @@
       <c r="G17" s="134"/>
       <c r="H17" s="134"/>
       <c r="I17" s="142"/>
-      <c r="J17" s="342"/>
-      <c r="K17" s="343"/>
-      <c r="L17" s="343"/>
-      <c r="M17" s="343"/>
+      <c r="J17" s="360"/>
+      <c r="K17" s="361"/>
+      <c r="L17" s="361"/>
+      <c r="M17" s="361"/>
       <c r="N17" s="25"/>
       <c r="O17" s="50"/>
       <c r="P17" s="50"/>
@@ -24355,26 +24352,26 @@
       <c r="V41" s="72"/>
     </row>
     <row r="42" spans="1:22" ht="17.100000000000001" customHeight="1">
-      <c r="A42" s="337"/>
-      <c r="B42" s="337"/>
-      <c r="C42" s="337"/>
-      <c r="D42" s="337"/>
-      <c r="E42" s="337"/>
-      <c r="F42" s="337"/>
-      <c r="G42" s="337"/>
-      <c r="H42" s="337"/>
-      <c r="I42" s="337"/>
-      <c r="J42" s="337"/>
-      <c r="K42" s="337"/>
-      <c r="L42" s="337"/>
-      <c r="M42" s="337"/>
-      <c r="N42" s="337"/>
-      <c r="O42" s="337"/>
-      <c r="P42" s="337"/>
-      <c r="Q42" s="337"/>
-      <c r="R42" s="337"/>
-      <c r="S42" s="337"/>
-      <c r="T42" s="337"/>
+      <c r="A42" s="336"/>
+      <c r="B42" s="336"/>
+      <c r="C42" s="336"/>
+      <c r="D42" s="336"/>
+      <c r="E42" s="336"/>
+      <c r="F42" s="336"/>
+      <c r="G42" s="336"/>
+      <c r="H42" s="336"/>
+      <c r="I42" s="336"/>
+      <c r="J42" s="336"/>
+      <c r="K42" s="336"/>
+      <c r="L42" s="336"/>
+      <c r="M42" s="336"/>
+      <c r="N42" s="336"/>
+      <c r="O42" s="336"/>
+      <c r="P42" s="336"/>
+      <c r="Q42" s="336"/>
+      <c r="R42" s="336"/>
+      <c r="S42" s="336"/>
+      <c r="T42" s="336"/>
       <c r="U42" s="82"/>
       <c r="V42" s="18"/>
     </row>
@@ -24515,18 +24512,6 @@
     <row r="177" ht="17.100000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="A3:W3"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="S12:V12"/>
-    <mergeCell ref="A42:T42"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="P40:T40"/>
-    <mergeCell ref="D41:H41"/>
     <mergeCell ref="J17:M17"/>
     <mergeCell ref="G8:P9"/>
     <mergeCell ref="B11:H11"/>
@@ -24535,6 +24520,18 @@
     <mergeCell ref="I12:K12"/>
     <mergeCell ref="L11:N11"/>
     <mergeCell ref="O11:R11"/>
+    <mergeCell ref="A42:T42"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="P40:T40"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="A3:W3"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="S12:V12"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.98425196850393704" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -24605,29 +24602,29 @@
       <c r="T2" s="83"/>
     </row>
     <row r="3" spans="1:38" ht="34.5" customHeight="1">
-      <c r="A3" s="367" t="s">
+      <c r="A3" s="396" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="367"/>
-      <c r="C3" s="367"/>
-      <c r="D3" s="367"/>
-      <c r="E3" s="367"/>
-      <c r="F3" s="367"/>
-      <c r="G3" s="367"/>
-      <c r="H3" s="367"/>
-      <c r="I3" s="367"/>
-      <c r="J3" s="367"/>
-      <c r="K3" s="367"/>
-      <c r="L3" s="367"/>
-      <c r="M3" s="367"/>
-      <c r="N3" s="367"/>
-      <c r="O3" s="367"/>
-      <c r="P3" s="367"/>
-      <c r="Q3" s="367"/>
-      <c r="R3" s="367"/>
-      <c r="S3" s="367"/>
-      <c r="T3" s="367"/>
-      <c r="U3" s="367"/>
+      <c r="B3" s="396"/>
+      <c r="C3" s="396"/>
+      <c r="D3" s="396"/>
+      <c r="E3" s="396"/>
+      <c r="F3" s="396"/>
+      <c r="G3" s="396"/>
+      <c r="H3" s="396"/>
+      <c r="I3" s="396"/>
+      <c r="J3" s="396"/>
+      <c r="K3" s="396"/>
+      <c r="L3" s="396"/>
+      <c r="M3" s="396"/>
+      <c r="N3" s="396"/>
+      <c r="O3" s="396"/>
+      <c r="P3" s="396"/>
+      <c r="Q3" s="396"/>
+      <c r="R3" s="396"/>
+      <c r="S3" s="396"/>
+      <c r="T3" s="396"/>
+      <c r="U3" s="396"/>
     </row>
     <row r="4" spans="1:38" ht="9.9499999999999993" customHeight="1">
       <c r="A4" s="83"/>
@@ -24710,401 +24707,401 @@
       <c r="M7" s="83"/>
       <c r="N7" s="83"/>
       <c r="O7" s="83"/>
-      <c r="Q7" s="388" t="s">
+      <c r="Q7" s="366" t="s">
         <v>123</v>
       </c>
-      <c r="R7" s="388"/>
+      <c r="R7" s="366"/>
       <c r="S7" s="254" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="21" customHeight="1">
-      <c r="D8" s="376" t="s">
+      <c r="D8" s="382" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="377"/>
-      <c r="F8" s="377"/>
-      <c r="G8" s="378"/>
-      <c r="H8" s="376" t="s">
+      <c r="E8" s="383"/>
+      <c r="F8" s="383"/>
+      <c r="G8" s="384"/>
+      <c r="H8" s="382" t="s">
         <v>118</v>
       </c>
-      <c r="I8" s="377"/>
-      <c r="J8" s="377"/>
-      <c r="K8" s="378"/>
-      <c r="L8" s="389" t="s">
+      <c r="I8" s="383"/>
+      <c r="J8" s="383"/>
+      <c r="K8" s="384"/>
+      <c r="L8" s="370" t="s">
         <v>52</v>
       </c>
-      <c r="M8" s="390"/>
-      <c r="N8" s="390"/>
-      <c r="O8" s="391"/>
-      <c r="P8" s="376" t="s">
+      <c r="M8" s="371"/>
+      <c r="N8" s="371"/>
+      <c r="O8" s="372"/>
+      <c r="P8" s="382" t="s">
         <v>122</v>
       </c>
-      <c r="Q8" s="377"/>
-      <c r="R8" s="377"/>
-      <c r="S8" s="378"/>
+      <c r="Q8" s="383"/>
+      <c r="R8" s="383"/>
+      <c r="S8" s="384"/>
     </row>
     <row r="9" spans="1:38" ht="17.25" customHeight="1">
-      <c r="D9" s="379"/>
-      <c r="E9" s="380"/>
-      <c r="F9" s="380"/>
-      <c r="G9" s="381"/>
-      <c r="H9" s="379"/>
-      <c r="I9" s="380"/>
-      <c r="J9" s="380"/>
-      <c r="K9" s="381"/>
-      <c r="L9" s="382"/>
-      <c r="M9" s="383"/>
-      <c r="N9" s="383"/>
-      <c r="O9" s="384"/>
-      <c r="P9" s="379"/>
-      <c r="Q9" s="380"/>
-      <c r="R9" s="380"/>
-      <c r="S9" s="381"/>
+      <c r="D9" s="385"/>
+      <c r="E9" s="386"/>
+      <c r="F9" s="386"/>
+      <c r="G9" s="387"/>
+      <c r="H9" s="385"/>
+      <c r="I9" s="386"/>
+      <c r="J9" s="386"/>
+      <c r="K9" s="387"/>
+      <c r="L9" s="373"/>
+      <c r="M9" s="374"/>
+      <c r="N9" s="374"/>
+      <c r="O9" s="375"/>
+      <c r="P9" s="385"/>
+      <c r="Q9" s="386"/>
+      <c r="R9" s="386"/>
+      <c r="S9" s="387"/>
     </row>
     <row r="10" spans="1:38" ht="21" customHeight="1">
-      <c r="D10" s="385">
+      <c r="D10" s="390">
         <f>'Data Record'!B16</f>
         <v>0</v>
       </c>
-      <c r="E10" s="386"/>
-      <c r="F10" s="386"/>
-      <c r="G10" s="387"/>
-      <c r="H10" s="369">
+      <c r="E10" s="391"/>
+      <c r="F10" s="391"/>
+      <c r="G10" s="392"/>
+      <c r="H10" s="367">
         <f>'Data Record'!W16</f>
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="I10" s="370"/>
-      <c r="J10" s="370"/>
-      <c r="K10" s="371"/>
-      <c r="L10" s="369">
+      <c r="I10" s="368"/>
+      <c r="J10" s="368"/>
+      <c r="K10" s="369"/>
+      <c r="L10" s="367">
         <f t="shared" ref="L10:L20" si="0">H10-D10</f>
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="M10" s="370"/>
-      <c r="N10" s="370"/>
-      <c r="O10" s="371"/>
-      <c r="P10" s="395">
+      <c r="M10" s="368"/>
+      <c r="N10" s="368"/>
+      <c r="O10" s="369"/>
+      <c r="P10" s="379">
         <f>'Uncertainty Budget'!P7</f>
         <v>3.0005555041247503</v>
       </c>
-      <c r="Q10" s="396"/>
-      <c r="R10" s="396"/>
-      <c r="S10" s="397"/>
+      <c r="Q10" s="380"/>
+      <c r="R10" s="380"/>
+      <c r="S10" s="381"/>
     </row>
     <row r="11" spans="1:38" ht="21" customHeight="1">
-      <c r="D11" s="385">
+      <c r="D11" s="390">
         <f>'Data Record'!B18</f>
         <v>200</v>
       </c>
-      <c r="E11" s="386"/>
-      <c r="F11" s="386"/>
-      <c r="G11" s="387"/>
-      <c r="H11" s="369">
+      <c r="E11" s="391"/>
+      <c r="F11" s="391"/>
+      <c r="G11" s="392"/>
+      <c r="H11" s="367">
         <f>'Data Record'!W18</f>
         <v>199.99945</v>
       </c>
-      <c r="I11" s="370"/>
-      <c r="J11" s="370"/>
-      <c r="K11" s="371"/>
-      <c r="L11" s="369">
+      <c r="I11" s="368"/>
+      <c r="J11" s="368"/>
+      <c r="K11" s="369"/>
+      <c r="L11" s="367">
         <f t="shared" si="0"/>
         <v>-5.5000000000404725E-4</v>
       </c>
-      <c r="M11" s="370"/>
-      <c r="N11" s="370"/>
-      <c r="O11" s="371"/>
-      <c r="P11" s="395">
+      <c r="M11" s="368"/>
+      <c r="N11" s="368"/>
+      <c r="O11" s="369"/>
+      <c r="P11" s="379">
         <f>'Uncertainty Budget'!P8</f>
         <v>4.0070770727135594</v>
       </c>
-      <c r="Q11" s="396"/>
-      <c r="R11" s="396"/>
-      <c r="S11" s="397"/>
+      <c r="Q11" s="380"/>
+      <c r="R11" s="380"/>
+      <c r="S11" s="381"/>
     </row>
     <row r="12" spans="1:38" ht="21" customHeight="1">
-      <c r="D12" s="385">
+      <c r="D12" s="390">
         <f>'Data Record'!B20</f>
         <v>400</v>
       </c>
-      <c r="E12" s="386"/>
-      <c r="F12" s="386"/>
-      <c r="G12" s="387"/>
-      <c r="H12" s="369">
+      <c r="E12" s="391"/>
+      <c r="F12" s="391"/>
+      <c r="G12" s="392"/>
+      <c r="H12" s="367">
         <f>'Data Record'!W20</f>
         <v>399.99959999999999</v>
       </c>
-      <c r="I12" s="370"/>
-      <c r="J12" s="370"/>
-      <c r="K12" s="371"/>
-      <c r="L12" s="369">
+      <c r="I12" s="368"/>
+      <c r="J12" s="368"/>
+      <c r="K12" s="369"/>
+      <c r="L12" s="367">
         <f t="shared" si="0"/>
         <v>-4.0000000001327862E-4</v>
       </c>
-      <c r="M12" s="370"/>
-      <c r="N12" s="370"/>
-      <c r="O12" s="371"/>
-      <c r="P12" s="395">
+      <c r="M12" s="368"/>
+      <c r="N12" s="368"/>
+      <c r="O12" s="369"/>
+      <c r="P12" s="379">
         <f>'Uncertainty Budget'!P9</f>
         <v>6.1015102530941778</v>
       </c>
-      <c r="Q12" s="396"/>
-      <c r="R12" s="396"/>
-      <c r="S12" s="397"/>
+      <c r="Q12" s="380"/>
+      <c r="R12" s="380"/>
+      <c r="S12" s="381"/>
     </row>
     <row r="13" spans="1:38" ht="21" customHeight="1">
-      <c r="D13" s="385">
+      <c r="D13" s="390">
         <f>'Data Record'!B22</f>
         <v>600</v>
       </c>
-      <c r="E13" s="386"/>
-      <c r="F13" s="386"/>
-      <c r="G13" s="387"/>
-      <c r="H13" s="369">
+      <c r="E13" s="391"/>
+      <c r="F13" s="391"/>
+      <c r="G13" s="392"/>
+      <c r="H13" s="367">
         <f>'Data Record'!W22</f>
         <v>59.99915</v>
       </c>
-      <c r="I13" s="370"/>
-      <c r="J13" s="370"/>
-      <c r="K13" s="371"/>
-      <c r="L13" s="369">
+      <c r="I13" s="368"/>
+      <c r="J13" s="368"/>
+      <c r="K13" s="369"/>
+      <c r="L13" s="367">
         <f t="shared" si="0"/>
         <v>-540.00085000000001</v>
       </c>
-      <c r="M13" s="370"/>
-      <c r="N13" s="370"/>
-      <c r="O13" s="371"/>
-      <c r="P13" s="395">
+      <c r="M13" s="368"/>
+      <c r="N13" s="368"/>
+      <c r="O13" s="369"/>
+      <c r="P13" s="379">
         <f>'Uncertainty Budget'!P10</f>
         <v>8.5143121614107429</v>
       </c>
-      <c r="Q13" s="396"/>
-      <c r="R13" s="396"/>
-      <c r="S13" s="397"/>
+      <c r="Q13" s="380"/>
+      <c r="R13" s="380"/>
+      <c r="S13" s="381"/>
       <c r="AK13" s="101"/>
       <c r="AL13" s="84"/>
     </row>
     <row r="14" spans="1:38" ht="21" customHeight="1">
-      <c r="D14" s="385">
+      <c r="D14" s="390">
         <f>'Data Record'!B24</f>
         <v>800</v>
       </c>
-      <c r="E14" s="386"/>
-      <c r="F14" s="386"/>
-      <c r="G14" s="387"/>
-      <c r="H14" s="369">
+      <c r="E14" s="391"/>
+      <c r="F14" s="391"/>
+      <c r="G14" s="392"/>
+      <c r="H14" s="367">
         <f>'Data Record'!W24</f>
         <v>79.998525000000001</v>
       </c>
-      <c r="I14" s="370"/>
-      <c r="J14" s="370"/>
-      <c r="K14" s="371"/>
-      <c r="L14" s="369">
+      <c r="I14" s="368"/>
+      <c r="J14" s="368"/>
+      <c r="K14" s="369"/>
+      <c r="L14" s="367">
         <f t="shared" si="0"/>
         <v>-720.00147500000003</v>
       </c>
-      <c r="M14" s="370"/>
-      <c r="N14" s="370"/>
-      <c r="O14" s="371"/>
-      <c r="P14" s="395">
+      <c r="M14" s="368"/>
+      <c r="N14" s="368"/>
+      <c r="O14" s="369"/>
+      <c r="P14" s="379">
         <f>'Uncertainty Budget'!P11</f>
         <v>11.041715959454384</v>
       </c>
-      <c r="Q14" s="396"/>
-      <c r="R14" s="396"/>
-      <c r="S14" s="397"/>
+      <c r="Q14" s="380"/>
+      <c r="R14" s="380"/>
+      <c r="S14" s="381"/>
       <c r="AK14" s="84"/>
       <c r="AL14" s="84"/>
     </row>
     <row r="15" spans="1:38" ht="21" customHeight="1">
-      <c r="D15" s="385">
+      <c r="D15" s="390">
         <f>'Data Record'!B26</f>
         <v>1000</v>
       </c>
-      <c r="E15" s="386"/>
-      <c r="F15" s="386"/>
-      <c r="G15" s="387"/>
-      <c r="H15" s="369">
+      <c r="E15" s="391"/>
+      <c r="F15" s="391"/>
+      <c r="G15" s="392"/>
+      <c r="H15" s="367">
         <f>'Data Record'!W26</f>
         <v>99.998075</v>
       </c>
-      <c r="I15" s="370"/>
-      <c r="J15" s="370"/>
-      <c r="K15" s="371"/>
-      <c r="L15" s="369">
+      <c r="I15" s="368"/>
+      <c r="J15" s="368"/>
+      <c r="K15" s="369"/>
+      <c r="L15" s="367">
         <f t="shared" si="0"/>
         <v>-900.00192500000003</v>
       </c>
-      <c r="M15" s="370"/>
-      <c r="N15" s="370"/>
-      <c r="O15" s="371"/>
-      <c r="P15" s="395">
+      <c r="M15" s="368"/>
+      <c r="N15" s="368"/>
+      <c r="O15" s="369"/>
+      <c r="P15" s="379">
         <f>'Uncertainty Budget'!P12</f>
         <v>13.614684081181213</v>
       </c>
-      <c r="Q15" s="396"/>
-      <c r="R15" s="396"/>
-      <c r="S15" s="397"/>
+      <c r="Q15" s="380"/>
+      <c r="R15" s="380"/>
+      <c r="S15" s="381"/>
       <c r="AK15" s="84"/>
       <c r="AL15" s="84"/>
     </row>
     <row r="16" spans="1:38" ht="21" customHeight="1">
-      <c r="D16" s="385">
+      <c r="D16" s="390">
         <f>'Data Record'!B28</f>
         <v>1200</v>
       </c>
-      <c r="E16" s="386"/>
-      <c r="F16" s="386"/>
-      <c r="G16" s="387"/>
-      <c r="H16" s="369">
+      <c r="E16" s="391"/>
+      <c r="F16" s="391"/>
+      <c r="G16" s="392"/>
+      <c r="H16" s="367">
         <f>'Data Record'!W28</f>
         <v>1199.9909499999999</v>
       </c>
-      <c r="I16" s="370"/>
-      <c r="J16" s="370"/>
-      <c r="K16" s="371"/>
-      <c r="L16" s="369">
+      <c r="I16" s="368"/>
+      <c r="J16" s="368"/>
+      <c r="K16" s="369"/>
+      <c r="L16" s="367">
         <f t="shared" si="0"/>
         <v>-9.0500000001156877E-3</v>
       </c>
-      <c r="M16" s="370"/>
-      <c r="N16" s="370"/>
-      <c r="O16" s="371"/>
-      <c r="P16" s="395">
+      <c r="M16" s="368"/>
+      <c r="N16" s="368"/>
+      <c r="O16" s="369"/>
+      <c r="P16" s="379">
         <f>'Uncertainty Budget'!P13</f>
         <v>16.220071853093142</v>
       </c>
-      <c r="Q16" s="396"/>
-      <c r="R16" s="396"/>
-      <c r="S16" s="397"/>
+      <c r="Q16" s="380"/>
+      <c r="R16" s="380"/>
+      <c r="S16" s="381"/>
       <c r="AK16" s="84"/>
       <c r="AL16" s="84"/>
     </row>
     <row r="17" spans="1:39" ht="21" customHeight="1">
-      <c r="D17" s="385">
+      <c r="D17" s="390">
         <f>'Data Record'!B30</f>
         <v>1400</v>
       </c>
-      <c r="E17" s="386"/>
-      <c r="F17" s="386"/>
-      <c r="G17" s="387"/>
-      <c r="H17" s="369">
+      <c r="E17" s="391"/>
+      <c r="F17" s="391"/>
+      <c r="G17" s="392"/>
+      <c r="H17" s="367">
         <f>'Data Record'!W30</f>
         <v>1399.99935</v>
       </c>
-      <c r="I17" s="370"/>
-      <c r="J17" s="370"/>
-      <c r="K17" s="371"/>
-      <c r="L17" s="369">
+      <c r="I17" s="368"/>
+      <c r="J17" s="368"/>
+      <c r="K17" s="369"/>
+      <c r="L17" s="367">
         <f t="shared" si="0"/>
         <v>-6.4999999995052349E-4</v>
       </c>
-      <c r="M17" s="370"/>
-      <c r="N17" s="370"/>
-      <c r="O17" s="371"/>
-      <c r="P17" s="395">
+      <c r="M17" s="368"/>
+      <c r="N17" s="368"/>
+      <c r="O17" s="369"/>
+      <c r="P17" s="379">
         <f>'Uncertainty Budget'!P14</f>
         <v>18.831268323367564</v>
       </c>
-      <c r="Q17" s="396"/>
-      <c r="R17" s="396"/>
-      <c r="S17" s="397"/>
+      <c r="Q17" s="380"/>
+      <c r="R17" s="380"/>
+      <c r="S17" s="381"/>
       <c r="AK17" s="89"/>
       <c r="AL17" s="89"/>
     </row>
     <row r="18" spans="1:39" ht="21" customHeight="1">
-      <c r="D18" s="385">
+      <c r="D18" s="390">
         <f>'Data Record'!B32</f>
         <v>1600</v>
       </c>
-      <c r="E18" s="386"/>
-      <c r="F18" s="386"/>
-      <c r="G18" s="387"/>
-      <c r="H18" s="369">
+      <c r="E18" s="391"/>
+      <c r="F18" s="391"/>
+      <c r="G18" s="392"/>
+      <c r="H18" s="367">
         <f>'Data Record'!W32</f>
         <v>1600.0001000000002</v>
       </c>
-      <c r="I18" s="370"/>
-      <c r="J18" s="370"/>
-      <c r="K18" s="371"/>
-      <c r="L18" s="369">
+      <c r="I18" s="368"/>
+      <c r="J18" s="368"/>
+      <c r="K18" s="369"/>
+      <c r="L18" s="367">
         <f t="shared" si="0"/>
         <v>1.0000000020227162E-4</v>
       </c>
-      <c r="M18" s="370"/>
-      <c r="N18" s="370"/>
-      <c r="O18" s="371"/>
-      <c r="P18" s="395">
+      <c r="M18" s="368"/>
+      <c r="N18" s="368"/>
+      <c r="O18" s="369"/>
+      <c r="P18" s="379">
         <f>'Uncertainty Budget'!P15</f>
         <v>21.457544533884477</v>
       </c>
-      <c r="Q18" s="396"/>
-      <c r="R18" s="396"/>
-      <c r="S18" s="397"/>
+      <c r="Q18" s="380"/>
+      <c r="R18" s="380"/>
+      <c r="S18" s="381"/>
       <c r="AK18" s="89"/>
       <c r="AL18" s="89"/>
     </row>
     <row r="19" spans="1:39" ht="21" customHeight="1">
-      <c r="D19" s="385">
+      <c r="D19" s="390">
         <f>'Data Record'!B34</f>
         <v>1800</v>
       </c>
-      <c r="E19" s="386"/>
-      <c r="F19" s="386"/>
-      <c r="G19" s="387"/>
-      <c r="H19" s="369">
+      <c r="E19" s="391"/>
+      <c r="F19" s="391"/>
+      <c r="G19" s="392"/>
+      <c r="H19" s="367">
         <f>'Data Record'!W34</f>
         <v>1799.9997874999999</v>
       </c>
-      <c r="I19" s="370"/>
-      <c r="J19" s="370"/>
-      <c r="K19" s="371"/>
-      <c r="L19" s="369">
+      <c r="I19" s="368"/>
+      <c r="J19" s="368"/>
+      <c r="K19" s="369"/>
+      <c r="L19" s="367">
         <f t="shared" si="0"/>
         <v>-2.1250000008876668E-4</v>
       </c>
-      <c r="M19" s="370"/>
-      <c r="N19" s="370"/>
-      <c r="O19" s="371"/>
-      <c r="P19" s="395">
+      <c r="M19" s="368"/>
+      <c r="N19" s="368"/>
+      <c r="O19" s="369"/>
+      <c r="P19" s="379">
         <f>'Uncertainty Budget'!P16</f>
         <v>24.090151158550672</v>
       </c>
-      <c r="Q19" s="396"/>
-      <c r="R19" s="396"/>
-      <c r="S19" s="397"/>
+      <c r="Q19" s="380"/>
+      <c r="R19" s="380"/>
+      <c r="S19" s="381"/>
       <c r="AK19" s="102"/>
       <c r="AL19" s="102"/>
     </row>
     <row r="20" spans="1:39" ht="21" customHeight="1">
-      <c r="D20" s="382">
+      <c r="D20" s="373">
         <f>'Data Record'!B36</f>
         <v>2000</v>
       </c>
-      <c r="E20" s="383"/>
-      <c r="F20" s="383"/>
-      <c r="G20" s="384"/>
-      <c r="H20" s="372">
+      <c r="E20" s="374"/>
+      <c r="F20" s="374"/>
+      <c r="G20" s="375"/>
+      <c r="H20" s="393">
         <f>'Data Record'!W36</f>
         <v>1999.9982</v>
       </c>
-      <c r="I20" s="373"/>
-      <c r="J20" s="373"/>
-      <c r="K20" s="374"/>
-      <c r="L20" s="372">
+      <c r="I20" s="394"/>
+      <c r="J20" s="394"/>
+      <c r="K20" s="395"/>
+      <c r="L20" s="393">
         <f t="shared" si="0"/>
         <v>-1.8000000000029104E-3</v>
       </c>
-      <c r="M20" s="373"/>
-      <c r="N20" s="373"/>
-      <c r="O20" s="374"/>
-      <c r="P20" s="392">
+      <c r="M20" s="394"/>
+      <c r="N20" s="394"/>
+      <c r="O20" s="395"/>
+      <c r="P20" s="376">
         <f>'Uncertainty Budget'!P17</f>
         <v>26.727515461339671</v>
       </c>
-      <c r="Q20" s="393"/>
-      <c r="R20" s="393"/>
-      <c r="S20" s="394"/>
+      <c r="Q20" s="377"/>
+      <c r="R20" s="377"/>
+      <c r="S20" s="378"/>
       <c r="AK20" s="103"/>
       <c r="AL20" s="103"/>
     </row>
@@ -25163,81 +25160,81 @@
       <c r="U22" s="90"/>
     </row>
     <row r="23" spans="1:39" ht="21" customHeight="1">
-      <c r="A23" s="368" t="s">
+      <c r="A23" s="388" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="368"/>
-      <c r="C23" s="368"/>
-      <c r="D23" s="368"/>
-      <c r="E23" s="368"/>
-      <c r="F23" s="368"/>
-      <c r="G23" s="368"/>
-      <c r="H23" s="368"/>
-      <c r="I23" s="368"/>
-      <c r="J23" s="368"/>
-      <c r="K23" s="368"/>
-      <c r="L23" s="368"/>
-      <c r="M23" s="368"/>
-      <c r="N23" s="368"/>
-      <c r="O23" s="368"/>
-      <c r="P23" s="368"/>
-      <c r="Q23" s="368"/>
-      <c r="R23" s="368"/>
-      <c r="S23" s="368"/>
-      <c r="T23" s="368"/>
-      <c r="U23" s="368"/>
+      <c r="B23" s="388"/>
+      <c r="C23" s="388"/>
+      <c r="D23" s="388"/>
+      <c r="E23" s="388"/>
+      <c r="F23" s="388"/>
+      <c r="G23" s="388"/>
+      <c r="H23" s="388"/>
+      <c r="I23" s="388"/>
+      <c r="J23" s="388"/>
+      <c r="K23" s="388"/>
+      <c r="L23" s="388"/>
+      <c r="M23" s="388"/>
+      <c r="N23" s="388"/>
+      <c r="O23" s="388"/>
+      <c r="P23" s="388"/>
+      <c r="Q23" s="388"/>
+      <c r="R23" s="388"/>
+      <c r="S23" s="388"/>
+      <c r="T23" s="388"/>
+      <c r="U23" s="388"/>
     </row>
     <row r="24" spans="1:39" ht="21" customHeight="1">
-      <c r="A24" s="368" t="s">
+      <c r="A24" s="388" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="368"/>
-      <c r="C24" s="368"/>
-      <c r="D24" s="368"/>
-      <c r="E24" s="368"/>
-      <c r="F24" s="368"/>
-      <c r="G24" s="368"/>
-      <c r="H24" s="368"/>
-      <c r="I24" s="368"/>
-      <c r="J24" s="368"/>
-      <c r="K24" s="368"/>
-      <c r="L24" s="368"/>
-      <c r="M24" s="368"/>
-      <c r="N24" s="368"/>
-      <c r="O24" s="368"/>
-      <c r="P24" s="368"/>
-      <c r="Q24" s="368"/>
-      <c r="R24" s="368"/>
-      <c r="S24" s="368"/>
-      <c r="T24" s="368"/>
-      <c r="U24" s="368"/>
-      <c r="V24" s="368"/>
+      <c r="B24" s="388"/>
+      <c r="C24" s="388"/>
+      <c r="D24" s="388"/>
+      <c r="E24" s="388"/>
+      <c r="F24" s="388"/>
+      <c r="G24" s="388"/>
+      <c r="H24" s="388"/>
+      <c r="I24" s="388"/>
+      <c r="J24" s="388"/>
+      <c r="K24" s="388"/>
+      <c r="L24" s="388"/>
+      <c r="M24" s="388"/>
+      <c r="N24" s="388"/>
+      <c r="O24" s="388"/>
+      <c r="P24" s="388"/>
+      <c r="Q24" s="388"/>
+      <c r="R24" s="388"/>
+      <c r="S24" s="388"/>
+      <c r="T24" s="388"/>
+      <c r="U24" s="388"/>
+      <c r="V24" s="388"/>
     </row>
     <row r="25" spans="1:39" ht="21" customHeight="1">
-      <c r="A25" s="375" t="s">
+      <c r="A25" s="389" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="375"/>
-      <c r="C25" s="375"/>
-      <c r="D25" s="375"/>
-      <c r="E25" s="375"/>
-      <c r="F25" s="375"/>
-      <c r="G25" s="375"/>
-      <c r="H25" s="375"/>
-      <c r="I25" s="375"/>
-      <c r="J25" s="375"/>
-      <c r="K25" s="375"/>
-      <c r="L25" s="375"/>
-      <c r="M25" s="375"/>
-      <c r="N25" s="375"/>
-      <c r="O25" s="375"/>
-      <c r="P25" s="375"/>
-      <c r="Q25" s="375"/>
-      <c r="R25" s="375"/>
-      <c r="S25" s="375"/>
-      <c r="T25" s="375"/>
-      <c r="U25" s="375"/>
-      <c r="V25" s="375"/>
+      <c r="B25" s="389"/>
+      <c r="C25" s="389"/>
+      <c r="D25" s="389"/>
+      <c r="E25" s="389"/>
+      <c r="F25" s="389"/>
+      <c r="G25" s="389"/>
+      <c r="H25" s="389"/>
+      <c r="I25" s="389"/>
+      <c r="J25" s="389"/>
+      <c r="K25" s="389"/>
+      <c r="L25" s="389"/>
+      <c r="M25" s="389"/>
+      <c r="N25" s="389"/>
+      <c r="O25" s="389"/>
+      <c r="P25" s="389"/>
+      <c r="Q25" s="389"/>
+      <c r="R25" s="389"/>
+      <c r="S25" s="389"/>
+      <c r="T25" s="389"/>
+      <c r="U25" s="389"/>
+      <c r="V25" s="389"/>
     </row>
     <row r="26" spans="1:39" ht="17.100000000000001" customHeight="1"/>
     <row r="27" spans="1:39" ht="17.100000000000001" customHeight="1"/>
@@ -25389,6 +25386,43 @@
     <row r="173" ht="17.100000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="A3:U3"/>
+    <mergeCell ref="A23:U23"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="A24:V24"/>
+    <mergeCell ref="A25:V25"/>
+    <mergeCell ref="D8:G9"/>
+    <mergeCell ref="H8:K9"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="L10:O10"/>
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="H18:K18"/>
@@ -25405,43 +25439,6 @@
     <mergeCell ref="P11:S11"/>
     <mergeCell ref="P10:S10"/>
     <mergeCell ref="P8:S9"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="A24:V24"/>
-    <mergeCell ref="A25:V25"/>
-    <mergeCell ref="D8:G9"/>
-    <mergeCell ref="H8:K9"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="A3:U3"/>
-    <mergeCell ref="A23:U23"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="L15:O15"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.98425196850393704" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -25458,7 +25455,7 @@
   </sheetPr>
   <dimension ref="A1:AA116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O7" sqref="O7:O17"/>
     </sheetView>
   </sheetViews>
@@ -25671,66 +25668,66 @@
       <c r="G1" s="181"/>
     </row>
     <row r="2" spans="1:16" ht="23.25">
-      <c r="B2" s="431" t="s">
+      <c r="B2" s="397" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="431"/>
-      <c r="D2" s="431"/>
-      <c r="E2" s="431"/>
-      <c r="F2" s="431"/>
-      <c r="G2" s="431"/>
-      <c r="H2" s="431"/>
-      <c r="I2" s="431"/>
-      <c r="J2" s="431"/>
-      <c r="K2" s="431"/>
-      <c r="L2" s="431"/>
-      <c r="M2" s="431"/>
-      <c r="N2" s="431"/>
-      <c r="O2" s="431"/>
-      <c r="P2" s="431"/>
+      <c r="C2" s="397"/>
+      <c r="D2" s="397"/>
+      <c r="E2" s="397"/>
+      <c r="F2" s="397"/>
+      <c r="G2" s="397"/>
+      <c r="H2" s="397"/>
+      <c r="I2" s="397"/>
+      <c r="J2" s="397"/>
+      <c r="K2" s="397"/>
+      <c r="L2" s="397"/>
+      <c r="M2" s="397"/>
+      <c r="N2" s="397"/>
+      <c r="O2" s="397"/>
+      <c r="P2" s="397"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1">
-      <c r="B3" s="432"/>
-      <c r="C3" s="432"/>
-      <c r="D3" s="432"/>
-      <c r="E3" s="432"/>
-      <c r="F3" s="432"/>
-      <c r="G3" s="432"/>
+      <c r="B3" s="398"/>
+      <c r="C3" s="398"/>
+      <c r="D3" s="398"/>
+      <c r="E3" s="398"/>
+      <c r="F3" s="398"/>
+      <c r="G3" s="398"/>
       <c r="H3" s="183"/>
       <c r="I3" s="183"/>
       <c r="P3" s="183"/>
     </row>
     <row r="4" spans="1:16" ht="18" customHeight="1">
-      <c r="B4" s="433" t="s">
+      <c r="B4" s="399" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="434"/>
-      <c r="D4" s="433" t="s">
+      <c r="C4" s="400"/>
+      <c r="D4" s="399" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="434"/>
-      <c r="F4" s="433" t="s">
+      <c r="E4" s="400"/>
+      <c r="F4" s="399" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="434"/>
-      <c r="H4" s="435" t="s">
+      <c r="G4" s="400"/>
+      <c r="H4" s="401" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="436"/>
-      <c r="J4" s="437" t="s">
+      <c r="I4" s="402"/>
+      <c r="J4" s="403" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="438"/>
-      <c r="L4" s="439" t="s">
+      <c r="K4" s="404"/>
+      <c r="L4" s="405" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="439" t="s">
+      <c r="M4" s="405" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="439" t="s">
+      <c r="N4" s="405" t="s">
         <v>97</v>
       </c>
-      <c r="O4" s="439" t="s">
+      <c r="O4" s="405" t="s">
         <v>98</v>
       </c>
       <c r="P4" s="184" t="s">
@@ -25738,39 +25735,39 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="18" customHeight="1">
-      <c r="B5" s="441" t="s">
+      <c r="B5" s="407" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="442"/>
-      <c r="D5" s="441" t="s">
+      <c r="C5" s="408"/>
+      <c r="D5" s="407" t="s">
         <v>100</v>
       </c>
-      <c r="E5" s="442"/>
-      <c r="F5" s="441" t="s">
+      <c r="E5" s="408"/>
+      <c r="F5" s="407" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="442"/>
-      <c r="H5" s="441" t="s">
+      <c r="G5" s="408"/>
+      <c r="H5" s="407" t="s">
         <v>100</v>
       </c>
-      <c r="I5" s="442"/>
-      <c r="J5" s="441" t="s">
+      <c r="I5" s="408"/>
+      <c r="J5" s="407" t="s">
         <v>100</v>
       </c>
-      <c r="K5" s="442"/>
-      <c r="L5" s="440"/>
-      <c r="M5" s="440"/>
-      <c r="N5" s="440"/>
-      <c r="O5" s="440"/>
+      <c r="K5" s="408"/>
+      <c r="L5" s="406"/>
+      <c r="M5" s="406"/>
+      <c r="N5" s="406"/>
+      <c r="O5" s="406"/>
       <c r="P5" s="185" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="18.75">
-      <c r="B6" s="429" t="s">
+      <c r="B6" s="418" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="430"/>
+      <c r="C6" s="419"/>
       <c r="D6" s="186" t="s">
         <v>5</v>
       </c>
@@ -25812,11 +25809,11 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="18.75">
-      <c r="B7" s="427">
+      <c r="B7" s="416">
         <f>'Data Record'!B16</f>
         <v>0</v>
       </c>
-      <c r="C7" s="428"/>
+      <c r="C7" s="417"/>
       <c r="D7" s="193">
         <f>AA25/SQRT(4)</f>
         <v>0</v>
@@ -25871,11 +25868,11 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="18.75">
-      <c r="B8" s="427">
+      <c r="B8" s="416">
         <f>'Data Record'!B18</f>
         <v>200</v>
       </c>
-      <c r="C8" s="428"/>
+      <c r="C8" s="417"/>
       <c r="D8" s="193">
         <f>AA27/SQRT(4)</f>
         <v>0</v>
@@ -25930,11 +25927,11 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="18.75">
-      <c r="B9" s="427">
+      <c r="B9" s="416">
         <f>'Data Record'!B20</f>
         <v>400</v>
       </c>
-      <c r="C9" s="428"/>
+      <c r="C9" s="417"/>
       <c r="D9" s="193">
         <f>AA29/SQRT(4)</f>
         <v>5.4006172486332201E-5</v>
@@ -25989,11 +25986,11 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="18.75">
-      <c r="B10" s="427">
+      <c r="B10" s="416">
         <f>'Data Record'!B22</f>
         <v>600</v>
       </c>
-      <c r="C10" s="428"/>
+      <c r="C10" s="417"/>
       <c r="D10" s="193">
         <f>AA31/SQRT(4)</f>
         <v>4.9999999999883471E-5</v>
@@ -26049,11 +26046,11 @@
     </row>
     <row r="11" spans="1:16" ht="18.75">
       <c r="A11" s="199"/>
-      <c r="B11" s="427">
+      <c r="B11" s="416">
         <f>'Data Record'!B24</f>
         <v>800</v>
       </c>
-      <c r="C11" s="428"/>
+      <c r="C11" s="417"/>
       <c r="D11" s="193">
         <f>AA33/SQRT(4)</f>
         <v>1.250000000008337E-4</v>
@@ -26109,11 +26106,11 @@
     </row>
     <row r="12" spans="1:16" ht="18.75">
       <c r="A12" s="199"/>
-      <c r="B12" s="427">
+      <c r="B12" s="416">
         <f>'Data Record'!B26</f>
         <v>1000</v>
       </c>
-      <c r="C12" s="428"/>
+      <c r="C12" s="417"/>
       <c r="D12" s="193">
         <f>AA35/SQRT(4)</f>
         <v>7.4999999998542284E-5</v>
@@ -26169,11 +26166,11 @@
     </row>
     <row r="13" spans="1:16" ht="18.75">
       <c r="A13" s="199"/>
-      <c r="B13" s="427">
+      <c r="B13" s="416">
         <f>'Data Record'!B28</f>
         <v>1200</v>
       </c>
-      <c r="C13" s="428"/>
+      <c r="C13" s="417"/>
       <c r="D13" s="193">
         <f>AA37/SQRT(4)</f>
         <v>2.0412414522710462E-4</v>
@@ -26229,11 +26226,11 @@
     </row>
     <row r="14" spans="1:16" ht="18.75">
       <c r="A14" s="199"/>
-      <c r="B14" s="427">
+      <c r="B14" s="416">
         <f>'Data Record'!B30</f>
         <v>1400</v>
       </c>
-      <c r="C14" s="428"/>
+      <c r="C14" s="417"/>
       <c r="D14" s="193">
         <f>AA39/SQRT(4)</f>
         <v>0</v>
@@ -26288,11 +26285,11 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="18.75">
-      <c r="B15" s="427">
+      <c r="B15" s="416">
         <f>'Data Record'!B32</f>
         <v>1600</v>
       </c>
-      <c r="C15" s="428"/>
+      <c r="C15" s="417"/>
       <c r="D15" s="193">
         <f>AA41/SQRT(4)</f>
         <v>4.5643546447306373E-5</v>
@@ -26347,11 +26344,11 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="18.75">
-      <c r="B16" s="427">
+      <c r="B16" s="416">
         <f>'Data Record'!B34</f>
         <v>1800</v>
       </c>
-      <c r="C16" s="428"/>
+      <c r="C16" s="417"/>
       <c r="D16" s="193">
         <f>AA43/SQRT(4)</f>
         <v>5.1538820332558806E-5</v>
@@ -26406,11 +26403,11 @@
       </c>
     </row>
     <row r="17" spans="1:27" ht="18.75">
-      <c r="B17" s="427">
+      <c r="B17" s="416">
         <f>'Data Record'!B36</f>
         <v>2000</v>
       </c>
-      <c r="C17" s="428"/>
+      <c r="C17" s="417"/>
       <c r="D17" s="193">
         <f>AA45/SQRT(4)</f>
         <v>7.3598007188051609E-5</v>
@@ -26506,21 +26503,21 @@
       <c r="A20" s="200"/>
       <c r="B20" s="201"/>
       <c r="C20" s="201"/>
-      <c r="D20" s="424" t="s">
+      <c r="D20" s="413" t="s">
         <v>102</v>
       </c>
-      <c r="E20" s="425"/>
-      <c r="F20" s="425"/>
-      <c r="G20" s="425"/>
-      <c r="H20" s="425"/>
-      <c r="I20" s="425"/>
-      <c r="J20" s="425"/>
-      <c r="K20" s="425"/>
-      <c r="L20" s="425"/>
-      <c r="M20" s="425"/>
-      <c r="N20" s="425"/>
-      <c r="O20" s="425"/>
-      <c r="P20" s="426"/>
+      <c r="E20" s="414"/>
+      <c r="F20" s="414"/>
+      <c r="G20" s="414"/>
+      <c r="H20" s="414"/>
+      <c r="I20" s="414"/>
+      <c r="J20" s="414"/>
+      <c r="K20" s="414"/>
+      <c r="L20" s="414"/>
+      <c r="M20" s="414"/>
+      <c r="N20" s="414"/>
+      <c r="O20" s="414"/>
+      <c r="P20" s="415"/>
     </row>
     <row r="21" spans="1:27" ht="18.75" customHeight="1">
       <c r="A21" s="200"/>
@@ -26557,22 +26554,22 @@
       <c r="N22" s="201"/>
       <c r="O22" s="201"/>
       <c r="P22" s="201"/>
-      <c r="R22" s="408" t="s">
+      <c r="R22" s="424" t="s">
         <v>0</v>
       </c>
-      <c r="S22" s="409"/>
-      <c r="T22" s="409"/>
-      <c r="U22" s="412" t="s">
+      <c r="S22" s="425"/>
+      <c r="T22" s="425"/>
+      <c r="U22" s="428" t="s">
         <v>121</v>
       </c>
-      <c r="V22" s="412"/>
-      <c r="W22" s="406" t="s">
+      <c r="V22" s="428"/>
+      <c r="W22" s="434" t="s">
         <v>124</v>
       </c>
-      <c r="X22" s="406"/>
-      <c r="Y22" s="406"/>
-      <c r="Z22" s="406"/>
-      <c r="AA22" s="414" t="s">
+      <c r="X22" s="434"/>
+      <c r="Y22" s="434"/>
+      <c r="Z22" s="434"/>
+      <c r="AA22" s="430" t="s">
         <v>125</v>
       </c>
     </row>
@@ -26593,16 +26590,16 @@
       <c r="N23" s="201"/>
       <c r="O23" s="201"/>
       <c r="P23" s="201"/>
-      <c r="R23" s="410"/>
-      <c r="S23" s="411"/>
-      <c r="T23" s="411"/>
-      <c r="U23" s="413"/>
-      <c r="V23" s="413"/>
-      <c r="W23" s="407"/>
-      <c r="X23" s="407"/>
-      <c r="Y23" s="407"/>
-      <c r="Z23" s="407"/>
-      <c r="AA23" s="415"/>
+      <c r="R23" s="426"/>
+      <c r="S23" s="427"/>
+      <c r="T23" s="427"/>
+      <c r="U23" s="429"/>
+      <c r="V23" s="429"/>
+      <c r="W23" s="435"/>
+      <c r="X23" s="435"/>
+      <c r="Y23" s="435"/>
+      <c r="Z23" s="435"/>
+      <c r="AA23" s="431"/>
     </row>
     <row r="24" spans="1:27" ht="15.95" customHeight="1">
       <c r="A24" s="200"/>
@@ -26621,11 +26618,11 @@
       <c r="N24" s="201"/>
       <c r="O24" s="201"/>
       <c r="P24" s="201"/>
-      <c r="R24" s="410"/>
-      <c r="S24" s="411"/>
-      <c r="T24" s="411"/>
-      <c r="U24" s="413"/>
-      <c r="V24" s="413"/>
+      <c r="R24" s="426"/>
+      <c r="S24" s="427"/>
+      <c r="T24" s="427"/>
+      <c r="U24" s="429"/>
+      <c r="V24" s="429"/>
       <c r="W24" s="255">
         <v>1</v>
       </c>
@@ -26638,7 +26635,7 @@
       <c r="Z24" s="255">
         <v>4</v>
       </c>
-      <c r="AA24" s="415"/>
+      <c r="AA24" s="431"/>
     </row>
     <row r="25" spans="1:27" ht="15.95" customHeight="1">
       <c r="A25" s="200"/>
@@ -26657,33 +26654,33 @@
       <c r="N25" s="201"/>
       <c r="O25" s="201"/>
       <c r="P25" s="201"/>
-      <c r="R25" s="419">
+      <c r="R25" s="412">
         <f>'Data Record'!B16</f>
         <v>0</v>
       </c>
-      <c r="S25" s="418"/>
-      <c r="T25" s="418"/>
-      <c r="U25" s="418" t="s">
+      <c r="S25" s="411"/>
+      <c r="T25" s="411"/>
+      <c r="U25" s="411" t="s">
         <v>119</v>
       </c>
-      <c r="V25" s="418"/>
-      <c r="W25" s="403">
+      <c r="V25" s="411"/>
+      <c r="W25" s="433">
         <f>AVERAGE('Data Record'!G16,'Data Record'!G17)</f>
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="X25" s="403">
+      <c r="X25" s="433">
         <f>AVERAGE('Data Record'!K16,'Data Record'!K17)</f>
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="Y25" s="403">
+      <c r="Y25" s="433">
         <f>AVERAGE('Data Record'!O16,'Data Record'!O17)</f>
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="Z25" s="403">
+      <c r="Z25" s="433">
         <f>AVERAGE('Data Record'!S16,'Data Record'!S17)</f>
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="AA25" s="398">
+      <c r="AA25" s="438">
         <f>_xlfn.STDEV.S(W25,X25,Y25,Z25)</f>
         <v>0</v>
       </c>
@@ -26705,18 +26702,18 @@
       <c r="N26" s="201"/>
       <c r="O26" s="201"/>
       <c r="P26" s="201"/>
-      <c r="R26" s="419"/>
-      <c r="S26" s="418"/>
-      <c r="T26" s="418"/>
-      <c r="U26" s="418" t="s">
+      <c r="R26" s="412"/>
+      <c r="S26" s="411"/>
+      <c r="T26" s="411"/>
+      <c r="U26" s="411" t="s">
         <v>120</v>
       </c>
-      <c r="V26" s="418"/>
-      <c r="W26" s="403"/>
-      <c r="X26" s="403"/>
-      <c r="Y26" s="403"/>
-      <c r="Z26" s="403"/>
-      <c r="AA26" s="398"/>
+      <c r="V26" s="411"/>
+      <c r="W26" s="433"/>
+      <c r="X26" s="433"/>
+      <c r="Y26" s="433"/>
+      <c r="Z26" s="433"/>
+      <c r="AA26" s="438"/>
     </row>
     <row r="27" spans="1:27" ht="15.95" customHeight="1">
       <c r="A27" s="200"/>
@@ -26735,33 +26732,33 @@
       <c r="N27" s="201"/>
       <c r="O27" s="201"/>
       <c r="P27" s="201"/>
-      <c r="R27" s="417">
+      <c r="R27" s="423">
         <f>'Data Record'!B18</f>
         <v>200</v>
       </c>
-      <c r="S27" s="416"/>
-      <c r="T27" s="416"/>
-      <c r="U27" s="416" t="s">
+      <c r="S27" s="422"/>
+      <c r="T27" s="422"/>
+      <c r="U27" s="422" t="s">
         <v>119</v>
       </c>
-      <c r="V27" s="416"/>
-      <c r="W27" s="405">
+      <c r="V27" s="422"/>
+      <c r="W27" s="432">
         <f>AVERAGE('Data Record'!G18,'Data Record'!G19)</f>
         <v>199.99945</v>
       </c>
-      <c r="X27" s="405">
+      <c r="X27" s="432">
         <f>AVERAGE('Data Record'!K18,'Data Record'!K19)</f>
         <v>199.99945</v>
       </c>
-      <c r="Y27" s="405">
+      <c r="Y27" s="432">
         <f>AVERAGE('Data Record'!O18,'Data Record'!O19)</f>
         <v>199.99945</v>
       </c>
-      <c r="Z27" s="405">
+      <c r="Z27" s="432">
         <f>AVERAGE('Data Record'!S18,'Data Record'!S19)</f>
         <v>199.99945</v>
       </c>
-      <c r="AA27" s="401">
+      <c r="AA27" s="441">
         <f>_xlfn.STDEV.S(W27,X27,Y27,Z27)</f>
         <v>0</v>
       </c>
@@ -26783,18 +26780,18 @@
       <c r="N28" s="201"/>
       <c r="O28" s="201"/>
       <c r="P28" s="201"/>
-      <c r="R28" s="417"/>
-      <c r="S28" s="416"/>
-      <c r="T28" s="416"/>
-      <c r="U28" s="416" t="s">
+      <c r="R28" s="423"/>
+      <c r="S28" s="422"/>
+      <c r="T28" s="422"/>
+      <c r="U28" s="422" t="s">
         <v>120</v>
       </c>
-      <c r="V28" s="416"/>
-      <c r="W28" s="405"/>
-      <c r="X28" s="405"/>
-      <c r="Y28" s="405"/>
-      <c r="Z28" s="405"/>
-      <c r="AA28" s="401"/>
+      <c r="V28" s="422"/>
+      <c r="W28" s="432"/>
+      <c r="X28" s="432"/>
+      <c r="Y28" s="432"/>
+      <c r="Z28" s="432"/>
+      <c r="AA28" s="441"/>
     </row>
     <row r="29" spans="1:27" ht="15.95" customHeight="1">
       <c r="A29" s="200"/>
@@ -26813,33 +26810,33 @@
       <c r="N29" s="201"/>
       <c r="O29" s="201"/>
       <c r="P29" s="201"/>
-      <c r="R29" s="419">
+      <c r="R29" s="412">
         <f>'Data Record'!B20</f>
         <v>400</v>
       </c>
-      <c r="S29" s="418"/>
-      <c r="T29" s="418"/>
-      <c r="U29" s="418" t="s">
+      <c r="S29" s="411"/>
+      <c r="T29" s="411"/>
+      <c r="U29" s="411" t="s">
         <v>119</v>
       </c>
-      <c r="V29" s="418"/>
-      <c r="W29" s="403">
+      <c r="V29" s="411"/>
+      <c r="W29" s="433">
         <f>AVERAGE('Data Record'!G20,'Data Record'!G21)</f>
         <v>399.99959999999999</v>
       </c>
-      <c r="X29" s="403">
+      <c r="X29" s="433">
         <f>AVERAGE('Data Record'!K20,'Data Record'!K21)</f>
         <v>399.99950000000001</v>
       </c>
-      <c r="Y29" s="403">
+      <c r="Y29" s="433">
         <f>AVERAGE('Data Record'!O20,'Data Record'!O21)</f>
         <v>399.99975000000001</v>
       </c>
-      <c r="Z29" s="403">
+      <c r="Z29" s="433">
         <f>AVERAGE('Data Record'!S20,'Data Record'!S21)</f>
         <v>399.99955</v>
       </c>
-      <c r="AA29" s="398">
+      <c r="AA29" s="438">
         <f>_xlfn.STDEV.S(W29,X29,Y29,Z29)</f>
         <v>1.080123449726644E-4</v>
       </c>
@@ -26861,18 +26858,18 @@
       <c r="N30" s="201"/>
       <c r="O30" s="201"/>
       <c r="P30" s="201"/>
-      <c r="R30" s="419"/>
-      <c r="S30" s="418"/>
-      <c r="T30" s="418"/>
-      <c r="U30" s="418" t="s">
+      <c r="R30" s="412"/>
+      <c r="S30" s="411"/>
+      <c r="T30" s="411"/>
+      <c r="U30" s="411" t="s">
         <v>120</v>
       </c>
-      <c r="V30" s="418"/>
-      <c r="W30" s="403"/>
-      <c r="X30" s="403"/>
-      <c r="Y30" s="403"/>
-      <c r="Z30" s="403"/>
-      <c r="AA30" s="398"/>
+      <c r="V30" s="411"/>
+      <c r="W30" s="433"/>
+      <c r="X30" s="433"/>
+      <c r="Y30" s="433"/>
+      <c r="Z30" s="433"/>
+      <c r="AA30" s="438"/>
     </row>
     <row r="31" spans="1:27" ht="15.95" customHeight="1">
       <c r="A31" s="200"/>
@@ -26891,33 +26888,33 @@
       <c r="N31" s="201"/>
       <c r="O31" s="201"/>
       <c r="P31" s="201"/>
-      <c r="R31" s="417">
+      <c r="R31" s="423">
         <f>'Data Record'!B22</f>
         <v>600</v>
       </c>
-      <c r="S31" s="416"/>
-      <c r="T31" s="416"/>
-      <c r="U31" s="416" t="s">
+      <c r="S31" s="422"/>
+      <c r="T31" s="422"/>
+      <c r="U31" s="422" t="s">
         <v>119</v>
       </c>
-      <c r="V31" s="416"/>
-      <c r="W31" s="405">
+      <c r="V31" s="422"/>
+      <c r="W31" s="432">
         <f>AVERAGE('Data Record'!G22,'Data Record'!G23)</f>
         <v>59.999200000000002</v>
       </c>
-      <c r="X31" s="405">
+      <c r="X31" s="432">
         <f>AVERAGE('Data Record'!K22,'Data Record'!K23)</f>
         <v>59.999200000000002</v>
       </c>
-      <c r="Y31" s="405">
+      <c r="Y31" s="432">
         <f>AVERAGE('Data Record'!O22,'Data Record'!O23)</f>
         <v>59.999200000000002</v>
       </c>
-      <c r="Z31" s="405">
+      <c r="Z31" s="432">
         <f>AVERAGE('Data Record'!S22,'Data Record'!S23)</f>
         <v>59.999000000000002</v>
       </c>
-      <c r="AA31" s="401">
+      <c r="AA31" s="441">
         <f t="shared" ref="AA31" si="12">_xlfn.STDEV.S(W31,X31,Y31,Z31)</f>
         <v>9.9999999999766942E-5</v>
       </c>
@@ -26939,18 +26936,18 @@
       <c r="N32" s="201"/>
       <c r="O32" s="201"/>
       <c r="P32" s="201"/>
-      <c r="R32" s="417"/>
-      <c r="S32" s="416"/>
-      <c r="T32" s="416"/>
-      <c r="U32" s="416" t="s">
+      <c r="R32" s="423"/>
+      <c r="S32" s="422"/>
+      <c r="T32" s="422"/>
+      <c r="U32" s="422" t="s">
         <v>120</v>
       </c>
-      <c r="V32" s="416"/>
-      <c r="W32" s="405"/>
-      <c r="X32" s="405"/>
-      <c r="Y32" s="405"/>
-      <c r="Z32" s="405"/>
-      <c r="AA32" s="401"/>
+      <c r="V32" s="422"/>
+      <c r="W32" s="432"/>
+      <c r="X32" s="432"/>
+      <c r="Y32" s="432"/>
+      <c r="Z32" s="432"/>
+      <c r="AA32" s="441"/>
     </row>
     <row r="33" spans="1:27" ht="15.95" customHeight="1">
       <c r="A33" s="200"/>
@@ -26969,33 +26966,33 @@
       <c r="N33" s="201"/>
       <c r="O33" s="201"/>
       <c r="P33" s="201"/>
-      <c r="R33" s="419">
+      <c r="R33" s="412">
         <f>'Data Record'!B24</f>
         <v>800</v>
       </c>
-      <c r="S33" s="418"/>
-      <c r="T33" s="418"/>
-      <c r="U33" s="418" t="s">
+      <c r="S33" s="411"/>
+      <c r="T33" s="411"/>
+      <c r="U33" s="411" t="s">
         <v>119</v>
       </c>
-      <c r="V33" s="418"/>
-      <c r="W33" s="403">
+      <c r="V33" s="411"/>
+      <c r="W33" s="433">
         <f>AVERAGE('Data Record'!G24,'Data Record'!G25)</f>
         <v>79.998599999999996</v>
       </c>
-      <c r="X33" s="403">
+      <c r="X33" s="433">
         <f>AVERAGE('Data Record'!K24,'Data Record'!K25)</f>
         <v>79.998500000000007</v>
       </c>
-      <c r="Y33" s="403">
+      <c r="Y33" s="433">
         <f>AVERAGE('Data Record'!O24,'Data Record'!O25)</f>
         <v>79.998199999999997</v>
       </c>
-      <c r="Z33" s="403">
+      <c r="Z33" s="433">
         <f>AVERAGE('Data Record'!S24,'Data Record'!S25)</f>
         <v>79.998800000000003</v>
       </c>
-      <c r="AA33" s="398">
+      <c r="AA33" s="438">
         <f t="shared" ref="AA33" si="13">_xlfn.STDEV.S(W33,X33,Y33,Z33)</f>
         <v>2.500000000016674E-4</v>
       </c>
@@ -27017,18 +27014,18 @@
       <c r="N34" s="201"/>
       <c r="O34" s="201"/>
       <c r="P34" s="201"/>
-      <c r="R34" s="419"/>
-      <c r="S34" s="418"/>
-      <c r="T34" s="418"/>
-      <c r="U34" s="418" t="s">
+      <c r="R34" s="412"/>
+      <c r="S34" s="411"/>
+      <c r="T34" s="411"/>
+      <c r="U34" s="411" t="s">
         <v>120</v>
       </c>
-      <c r="V34" s="418"/>
-      <c r="W34" s="403"/>
-      <c r="X34" s="403"/>
-      <c r="Y34" s="403"/>
-      <c r="Z34" s="403"/>
-      <c r="AA34" s="398"/>
+      <c r="V34" s="411"/>
+      <c r="W34" s="433"/>
+      <c r="X34" s="433"/>
+      <c r="Y34" s="433"/>
+      <c r="Z34" s="433"/>
+      <c r="AA34" s="438"/>
     </row>
     <row r="35" spans="1:27" ht="15.95" customHeight="1">
       <c r="A35" s="200"/>
@@ -27047,33 +27044,33 @@
       <c r="N35" s="201"/>
       <c r="O35" s="201"/>
       <c r="P35" s="201"/>
-      <c r="R35" s="421">
+      <c r="R35" s="410">
         <f>'Data Record'!B26</f>
         <v>1000</v>
       </c>
-      <c r="S35" s="420"/>
-      <c r="T35" s="420"/>
-      <c r="U35" s="420" t="s">
+      <c r="S35" s="409"/>
+      <c r="T35" s="409"/>
+      <c r="U35" s="409" t="s">
         <v>119</v>
       </c>
-      <c r="V35" s="420"/>
-      <c r="W35" s="402">
+      <c r="V35" s="409"/>
+      <c r="W35" s="436">
         <f>AVERAGE('Data Record'!G26,'Data Record'!G27)</f>
         <v>99.998000000000005</v>
       </c>
-      <c r="X35" s="402">
+      <c r="X35" s="436">
         <f>AVERAGE('Data Record'!K26,'Data Record'!K27)</f>
         <v>99.998199999999997</v>
       </c>
-      <c r="Y35" s="402">
+      <c r="Y35" s="436">
         <f>AVERAGE('Data Record'!O26,'Data Record'!O27)</f>
         <v>99.997900000000001</v>
       </c>
-      <c r="Z35" s="402">
+      <c r="Z35" s="436">
         <f>AVERAGE('Data Record'!S26,'Data Record'!S27)</f>
         <v>99.998199999999997</v>
       </c>
-      <c r="AA35" s="400">
+      <c r="AA35" s="440">
         <f t="shared" ref="AA35" si="14">_xlfn.STDEV.S(W35,X35,Y35,Z35)</f>
         <v>1.4999999999708457E-4</v>
       </c>
@@ -27095,18 +27092,18 @@
       <c r="N36" s="201"/>
       <c r="O36" s="201"/>
       <c r="P36" s="201"/>
-      <c r="R36" s="421"/>
-      <c r="S36" s="420"/>
-      <c r="T36" s="420"/>
-      <c r="U36" s="420" t="s">
+      <c r="R36" s="410"/>
+      <c r="S36" s="409"/>
+      <c r="T36" s="409"/>
+      <c r="U36" s="409" t="s">
         <v>120</v>
       </c>
-      <c r="V36" s="420"/>
-      <c r="W36" s="402"/>
-      <c r="X36" s="402"/>
-      <c r="Y36" s="402"/>
-      <c r="Z36" s="402"/>
-      <c r="AA36" s="400"/>
+      <c r="V36" s="409"/>
+      <c r="W36" s="436"/>
+      <c r="X36" s="436"/>
+      <c r="Y36" s="436"/>
+      <c r="Z36" s="436"/>
+      <c r="AA36" s="440"/>
     </row>
     <row r="37" spans="1:27" ht="15.95" customHeight="1">
       <c r="A37" s="200"/>
@@ -27125,33 +27122,33 @@
       <c r="N37" s="201"/>
       <c r="O37" s="201"/>
       <c r="P37" s="201"/>
-      <c r="R37" s="419">
+      <c r="R37" s="412">
         <f>'Data Record'!B28</f>
         <v>1200</v>
       </c>
-      <c r="S37" s="418"/>
-      <c r="T37" s="418"/>
-      <c r="U37" s="418" t="s">
+      <c r="S37" s="411"/>
+      <c r="T37" s="411"/>
+      <c r="U37" s="411" t="s">
         <v>119</v>
       </c>
-      <c r="V37" s="418"/>
-      <c r="W37" s="403">
+      <c r="V37" s="411"/>
+      <c r="W37" s="433">
         <f>AVERAGE('Data Record'!G28,'Data Record'!G29)</f>
         <v>1199.99145</v>
       </c>
-      <c r="X37" s="403">
+      <c r="X37" s="433">
         <f>AVERAGE('Data Record'!K28,'Data Record'!K29)</f>
         <v>1199.9909499999999</v>
       </c>
-      <c r="Y37" s="403">
+      <c r="Y37" s="433">
         <f>AVERAGE('Data Record'!O28,'Data Record'!O29)</f>
         <v>1199.9909499999999</v>
       </c>
-      <c r="Z37" s="403">
+      <c r="Z37" s="433">
         <f>AVERAGE('Data Record'!S28,'Data Record'!S29)</f>
         <v>1199.99045</v>
       </c>
-      <c r="AA37" s="398">
+      <c r="AA37" s="438">
         <f t="shared" ref="AA37" si="15">_xlfn.STDEV.S(W37,X37,Y37,Z37)</f>
         <v>4.0824829045420924E-4</v>
       </c>
@@ -27173,18 +27170,18 @@
       <c r="N38" s="201"/>
       <c r="O38" s="201"/>
       <c r="P38" s="201"/>
-      <c r="R38" s="419"/>
-      <c r="S38" s="418"/>
-      <c r="T38" s="418"/>
-      <c r="U38" s="418" t="s">
+      <c r="R38" s="412"/>
+      <c r="S38" s="411"/>
+      <c r="T38" s="411"/>
+      <c r="U38" s="411" t="s">
         <v>120</v>
       </c>
-      <c r="V38" s="418"/>
-      <c r="W38" s="403"/>
-      <c r="X38" s="403"/>
-      <c r="Y38" s="403"/>
-      <c r="Z38" s="403"/>
-      <c r="AA38" s="398"/>
+      <c r="V38" s="411"/>
+      <c r="W38" s="433"/>
+      <c r="X38" s="433"/>
+      <c r="Y38" s="433"/>
+      <c r="Z38" s="433"/>
+      <c r="AA38" s="438"/>
     </row>
     <row r="39" spans="1:27" ht="15.95" customHeight="1">
       <c r="A39" s="200"/>
@@ -27203,33 +27200,33 @@
       <c r="N39" s="201"/>
       <c r="O39" s="201"/>
       <c r="P39" s="201"/>
-      <c r="R39" s="421">
+      <c r="R39" s="410">
         <f>'Data Record'!B30</f>
         <v>1400</v>
       </c>
-      <c r="S39" s="420"/>
-      <c r="T39" s="420"/>
-      <c r="U39" s="420" t="s">
+      <c r="S39" s="409"/>
+      <c r="T39" s="409"/>
+      <c r="U39" s="409" t="s">
         <v>119</v>
       </c>
-      <c r="V39" s="420"/>
-      <c r="W39" s="402">
+      <c r="V39" s="409"/>
+      <c r="W39" s="436">
         <f>AVERAGE('Data Record'!G30,'Data Record'!G31)</f>
         <v>1399.99935</v>
       </c>
-      <c r="X39" s="402">
+      <c r="X39" s="436">
         <f>AVERAGE('Data Record'!K30,'Data Record'!K31)</f>
         <v>1399.99935</v>
       </c>
-      <c r="Y39" s="402">
+      <c r="Y39" s="436">
         <f>AVERAGE('Data Record'!O30,'Data Record'!O31)</f>
         <v>1399.99935</v>
       </c>
-      <c r="Z39" s="402">
+      <c r="Z39" s="436">
         <f>AVERAGE('Data Record'!S30,'Data Record'!S31)</f>
         <v>1399.99935</v>
       </c>
-      <c r="AA39" s="400">
+      <c r="AA39" s="440">
         <f t="shared" ref="AA39" si="16">_xlfn.STDEV.S(W39,X39,Y39,Z39)</f>
         <v>0</v>
       </c>
@@ -27251,18 +27248,18 @@
       <c r="N40" s="201"/>
       <c r="O40" s="201"/>
       <c r="P40" s="201"/>
-      <c r="R40" s="421"/>
-      <c r="S40" s="420"/>
-      <c r="T40" s="420"/>
-      <c r="U40" s="420" t="s">
+      <c r="R40" s="410"/>
+      <c r="S40" s="409"/>
+      <c r="T40" s="409"/>
+      <c r="U40" s="409" t="s">
         <v>120</v>
       </c>
-      <c r="V40" s="420"/>
-      <c r="W40" s="402"/>
-      <c r="X40" s="402"/>
-      <c r="Y40" s="402"/>
-      <c r="Z40" s="402"/>
-      <c r="AA40" s="400"/>
+      <c r="V40" s="409"/>
+      <c r="W40" s="436"/>
+      <c r="X40" s="436"/>
+      <c r="Y40" s="436"/>
+      <c r="Z40" s="436"/>
+      <c r="AA40" s="440"/>
     </row>
     <row r="41" spans="1:27" ht="15.95" customHeight="1">
       <c r="A41" s="200"/>
@@ -27281,33 +27278,33 @@
       <c r="N41" s="201"/>
       <c r="O41" s="201"/>
       <c r="P41" s="201"/>
-      <c r="R41" s="419">
+      <c r="R41" s="412">
         <f>'Data Record'!B32</f>
         <v>1600</v>
       </c>
-      <c r="S41" s="418"/>
-      <c r="T41" s="418"/>
-      <c r="U41" s="418" t="s">
+      <c r="S41" s="411"/>
+      <c r="T41" s="411"/>
+      <c r="U41" s="411" t="s">
         <v>119</v>
       </c>
-      <c r="V41" s="418"/>
-      <c r="W41" s="403">
+      <c r="V41" s="411"/>
+      <c r="W41" s="433">
         <f>AVERAGE('Data Record'!G32,'Data Record'!G33)</f>
         <v>1600.0001500000001</v>
       </c>
-      <c r="X41" s="403">
+      <c r="X41" s="433">
         <f>AVERAGE('Data Record'!K32,'Data Record'!K33)</f>
         <v>1600.0000500000001</v>
       </c>
-      <c r="Y41" s="403">
+      <c r="Y41" s="433">
         <f>AVERAGE('Data Record'!O32,'Data Record'!O33)</f>
         <v>1600.0001999999999</v>
       </c>
-      <c r="Z41" s="403">
+      <c r="Z41" s="433">
         <f>AVERAGE('Data Record'!S32,'Data Record'!S33)</f>
         <v>1600</v>
       </c>
-      <c r="AA41" s="398">
+      <c r="AA41" s="438">
         <f t="shared" ref="AA41" si="17">_xlfn.STDEV.S(W41,X41,Y41,Z41)</f>
         <v>9.1287092894612747E-5</v>
       </c>
@@ -27329,18 +27326,18 @@
       <c r="N42" s="201"/>
       <c r="O42" s="201"/>
       <c r="P42" s="201"/>
-      <c r="R42" s="419"/>
-      <c r="S42" s="418"/>
-      <c r="T42" s="418"/>
-      <c r="U42" s="418" t="s">
+      <c r="R42" s="412"/>
+      <c r="S42" s="411"/>
+      <c r="T42" s="411"/>
+      <c r="U42" s="411" t="s">
         <v>120</v>
       </c>
-      <c r="V42" s="418"/>
-      <c r="W42" s="403"/>
-      <c r="X42" s="403"/>
-      <c r="Y42" s="403"/>
-      <c r="Z42" s="403"/>
-      <c r="AA42" s="398"/>
+      <c r="V42" s="411"/>
+      <c r="W42" s="433"/>
+      <c r="X42" s="433"/>
+      <c r="Y42" s="433"/>
+      <c r="Z42" s="433"/>
+      <c r="AA42" s="438"/>
     </row>
     <row r="43" spans="1:27" ht="15.95" customHeight="1">
       <c r="A43" s="200"/>
@@ -27359,33 +27356,33 @@
       <c r="N43" s="201"/>
       <c r="O43" s="201"/>
       <c r="P43" s="201"/>
-      <c r="R43" s="421">
+      <c r="R43" s="410">
         <f>'Data Record'!B34</f>
         <v>1800</v>
       </c>
-      <c r="S43" s="420"/>
-      <c r="T43" s="420"/>
-      <c r="U43" s="420" t="s">
+      <c r="S43" s="409"/>
+      <c r="T43" s="409"/>
+      <c r="U43" s="409" t="s">
         <v>119</v>
       </c>
-      <c r="V43" s="420"/>
-      <c r="W43" s="402">
+      <c r="V43" s="409"/>
+      <c r="W43" s="436">
         <f>AVERAGE('Data Record'!G34,'Data Record'!G35)</f>
         <v>1799.9998000000001</v>
       </c>
-      <c r="X43" s="402">
+      <c r="X43" s="436">
         <f>AVERAGE('Data Record'!K34,'Data Record'!K35)</f>
         <v>1799.9998000000001</v>
       </c>
-      <c r="Y43" s="402">
+      <c r="Y43" s="436">
         <f>AVERAGE('Data Record'!O34,'Data Record'!O35)</f>
         <v>1799.9999</v>
       </c>
-      <c r="Z43" s="402">
+      <c r="Z43" s="436">
         <f>AVERAGE('Data Record'!S34,'Data Record'!S35)</f>
         <v>1799.99965</v>
       </c>
-      <c r="AA43" s="400">
+      <c r="AA43" s="440">
         <f t="shared" ref="AA43" si="18">_xlfn.STDEV.S(W43,X43,Y43,Z43)</f>
         <v>1.0307764066511761E-4</v>
       </c>
@@ -27407,18 +27404,18 @@
       <c r="N44" s="201"/>
       <c r="O44" s="201"/>
       <c r="P44" s="201"/>
-      <c r="R44" s="421"/>
-      <c r="S44" s="420"/>
-      <c r="T44" s="420"/>
-      <c r="U44" s="420" t="s">
+      <c r="R44" s="410"/>
+      <c r="S44" s="409"/>
+      <c r="T44" s="409"/>
+      <c r="U44" s="409" t="s">
         <v>120</v>
       </c>
-      <c r="V44" s="420"/>
-      <c r="W44" s="402"/>
-      <c r="X44" s="402"/>
-      <c r="Y44" s="402"/>
-      <c r="Z44" s="402"/>
-      <c r="AA44" s="400"/>
+      <c r="V44" s="409"/>
+      <c r="W44" s="436"/>
+      <c r="X44" s="436"/>
+      <c r="Y44" s="436"/>
+      <c r="Z44" s="436"/>
+      <c r="AA44" s="440"/>
     </row>
     <row r="45" spans="1:27" ht="15.95" customHeight="1">
       <c r="A45" s="200"/>
@@ -27437,33 +27434,33 @@
       <c r="N45" s="201"/>
       <c r="O45" s="201"/>
       <c r="P45" s="201"/>
-      <c r="R45" s="419">
+      <c r="R45" s="412">
         <f>'Data Record'!B36</f>
         <v>2000</v>
       </c>
-      <c r="S45" s="418"/>
-      <c r="T45" s="418"/>
-      <c r="U45" s="418" t="s">
+      <c r="S45" s="411"/>
+      <c r="T45" s="411"/>
+      <c r="U45" s="411" t="s">
         <v>119</v>
       </c>
-      <c r="V45" s="418"/>
-      <c r="W45" s="403">
+      <c r="V45" s="411"/>
+      <c r="W45" s="433">
         <f>AVERAGE('Data Record'!G36,'Data Record'!G37)</f>
         <v>1999.9980500000001</v>
       </c>
-      <c r="X45" s="403">
+      <c r="X45" s="433">
         <f>AVERAGE('Data Record'!K36,'Data Record'!K37)</f>
         <v>1999.9982</v>
       </c>
-      <c r="Y45" s="403">
+      <c r="Y45" s="433">
         <f>AVERAGE('Data Record'!O36,'Data Record'!O37)</f>
         <v>1999.9983999999999</v>
       </c>
-      <c r="Z45" s="403">
+      <c r="Z45" s="433">
         <f>AVERAGE('Data Record'!S36,'Data Record'!S37)</f>
         <v>1999.9981499999999</v>
       </c>
-      <c r="AA45" s="398">
+      <c r="AA45" s="438">
         <f t="shared" ref="AA45" si="19">_xlfn.STDEV.S(W45,X45,Y45,Z45)</f>
         <v>1.4719601437610322E-4</v>
       </c>
@@ -27485,18 +27482,18 @@
       <c r="N46" s="201"/>
       <c r="O46" s="201"/>
       <c r="P46" s="201"/>
-      <c r="R46" s="423"/>
-      <c r="S46" s="422"/>
-      <c r="T46" s="422"/>
-      <c r="U46" s="422" t="s">
+      <c r="R46" s="421"/>
+      <c r="S46" s="420"/>
+      <c r="T46" s="420"/>
+      <c r="U46" s="420" t="s">
         <v>120</v>
       </c>
-      <c r="V46" s="422"/>
-      <c r="W46" s="404"/>
-      <c r="X46" s="404"/>
-      <c r="Y46" s="404"/>
-      <c r="Z46" s="404"/>
-      <c r="AA46" s="399"/>
+      <c r="V46" s="420"/>
+      <c r="W46" s="437"/>
+      <c r="X46" s="437"/>
+      <c r="Y46" s="437"/>
+      <c r="Z46" s="437"/>
+      <c r="AA46" s="439"/>
     </row>
     <row r="47" spans="1:27">
       <c r="A47" s="200"/>
@@ -28760,22 +28757,87 @@
     </row>
   </sheetData>
   <mergeCells count="121">
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="AA45:AA46"/>
+    <mergeCell ref="AA35:AA36"/>
+    <mergeCell ref="AA37:AA38"/>
+    <mergeCell ref="AA39:AA40"/>
+    <mergeCell ref="AA41:AA42"/>
+    <mergeCell ref="AA43:AA44"/>
+    <mergeCell ref="AA25:AA26"/>
+    <mergeCell ref="AA27:AA28"/>
+    <mergeCell ref="AA29:AA30"/>
+    <mergeCell ref="AA31:AA32"/>
+    <mergeCell ref="AA33:AA34"/>
+    <mergeCell ref="W43:W44"/>
+    <mergeCell ref="X43:X44"/>
+    <mergeCell ref="Y43:Y44"/>
+    <mergeCell ref="Z43:Z44"/>
+    <mergeCell ref="W45:W46"/>
+    <mergeCell ref="X45:X46"/>
+    <mergeCell ref="Y45:Y46"/>
+    <mergeCell ref="Z45:Z46"/>
+    <mergeCell ref="W39:W40"/>
+    <mergeCell ref="X39:X40"/>
+    <mergeCell ref="Y39:Y40"/>
+    <mergeCell ref="Z39:Z40"/>
+    <mergeCell ref="W41:W42"/>
+    <mergeCell ref="X41:X42"/>
+    <mergeCell ref="Y41:Y42"/>
+    <mergeCell ref="Z41:Z42"/>
+    <mergeCell ref="W35:W36"/>
+    <mergeCell ref="X35:X36"/>
+    <mergeCell ref="Y35:Y36"/>
+    <mergeCell ref="Z35:Z36"/>
+    <mergeCell ref="W37:W38"/>
+    <mergeCell ref="X37:X38"/>
+    <mergeCell ref="Y37:Y38"/>
+    <mergeCell ref="Z37:Z38"/>
+    <mergeCell ref="W31:W32"/>
+    <mergeCell ref="X31:X32"/>
+    <mergeCell ref="Y31:Y32"/>
+    <mergeCell ref="Z31:Z32"/>
+    <mergeCell ref="W33:W34"/>
+    <mergeCell ref="X33:X34"/>
+    <mergeCell ref="Y33:Y34"/>
+    <mergeCell ref="Z33:Z34"/>
+    <mergeCell ref="W29:W30"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="Y29:Y30"/>
+    <mergeCell ref="Z29:Z30"/>
+    <mergeCell ref="W22:Z23"/>
+    <mergeCell ref="W25:W26"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="Y25:Y26"/>
+    <mergeCell ref="Z25:Z26"/>
+    <mergeCell ref="AA22:AA24"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="R27:T28"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="R25:T26"/>
+    <mergeCell ref="W27:W28"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="Z27:Z28"/>
+    <mergeCell ref="R29:T30"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="R35:T36"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="R33:T34"/>
+    <mergeCell ref="R22:T24"/>
+    <mergeCell ref="U22:V24"/>
+    <mergeCell ref="U46:V46"/>
+    <mergeCell ref="U45:V45"/>
+    <mergeCell ref="R45:T46"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="R43:T44"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="R41:T42"/>
     <mergeCell ref="U40:V40"/>
     <mergeCell ref="U39:V39"/>
     <mergeCell ref="R39:T40"/>
@@ -28795,92 +28857,27 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="U46:V46"/>
-    <mergeCell ref="U45:V45"/>
-    <mergeCell ref="R45:T46"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="U43:V43"/>
-    <mergeCell ref="R43:T44"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="R41:T42"/>
     <mergeCell ref="U32:V32"/>
     <mergeCell ref="U31:V31"/>
     <mergeCell ref="R31:T32"/>
     <mergeCell ref="U30:V30"/>
     <mergeCell ref="U29:V29"/>
-    <mergeCell ref="R29:T30"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="R35:T36"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="R33:T34"/>
-    <mergeCell ref="R22:T24"/>
-    <mergeCell ref="U22:V24"/>
-    <mergeCell ref="AA22:AA24"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="R27:T28"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="R25:T26"/>
-    <mergeCell ref="W27:W28"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="Z27:Z28"/>
-    <mergeCell ref="W29:W30"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="Y29:Y30"/>
-    <mergeCell ref="Z29:Z30"/>
-    <mergeCell ref="W22:Z23"/>
-    <mergeCell ref="W25:W26"/>
-    <mergeCell ref="X25:X26"/>
-    <mergeCell ref="Y25:Y26"/>
-    <mergeCell ref="Z25:Z26"/>
-    <mergeCell ref="W35:W36"/>
-    <mergeCell ref="X35:X36"/>
-    <mergeCell ref="Y35:Y36"/>
-    <mergeCell ref="Z35:Z36"/>
-    <mergeCell ref="W37:W38"/>
-    <mergeCell ref="X37:X38"/>
-    <mergeCell ref="Y37:Y38"/>
-    <mergeCell ref="Z37:Z38"/>
-    <mergeCell ref="W31:W32"/>
-    <mergeCell ref="X31:X32"/>
-    <mergeCell ref="Y31:Y32"/>
-    <mergeCell ref="Z31:Z32"/>
-    <mergeCell ref="W33:W34"/>
-    <mergeCell ref="X33:X34"/>
-    <mergeCell ref="Y33:Y34"/>
-    <mergeCell ref="Z33:Z34"/>
-    <mergeCell ref="W43:W44"/>
-    <mergeCell ref="X43:X44"/>
-    <mergeCell ref="Y43:Y44"/>
-    <mergeCell ref="Z43:Z44"/>
-    <mergeCell ref="W45:W46"/>
-    <mergeCell ref="X45:X46"/>
-    <mergeCell ref="Y45:Y46"/>
-    <mergeCell ref="Z45:Z46"/>
-    <mergeCell ref="W39:W40"/>
-    <mergeCell ref="X39:X40"/>
-    <mergeCell ref="Y39:Y40"/>
-    <mergeCell ref="Z39:Z40"/>
-    <mergeCell ref="W41:W42"/>
-    <mergeCell ref="X41:X42"/>
-    <mergeCell ref="Y41:Y42"/>
-    <mergeCell ref="Z41:Z42"/>
-    <mergeCell ref="AA45:AA46"/>
-    <mergeCell ref="AA35:AA36"/>
-    <mergeCell ref="AA37:AA38"/>
-    <mergeCell ref="AA39:AA40"/>
-    <mergeCell ref="AA41:AA42"/>
-    <mergeCell ref="AA43:AA44"/>
-    <mergeCell ref="AA25:AA26"/>
-    <mergeCell ref="AA27:AA28"/>
-    <mergeCell ref="AA29:AA30"/>
-    <mergeCell ref="AA31:AA32"/>
-    <mergeCell ref="AA33:AA34"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -29024,21 +29021,21 @@
       <c r="AD3" s="91"/>
     </row>
     <row r="4" spans="1:30" ht="26.25" customHeight="1">
-      <c r="A4" s="446" t="s">
+      <c r="A4" s="445" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="447"/>
-      <c r="C4" s="447"/>
-      <c r="D4" s="447"/>
-      <c r="E4" s="448"/>
+      <c r="B4" s="446"/>
+      <c r="C4" s="446"/>
+      <c r="D4" s="446"/>
+      <c r="E4" s="447"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="446" t="s">
+      <c r="G4" s="445" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="447"/>
-      <c r="I4" s="447"/>
-      <c r="J4" s="447"/>
-      <c r="K4" s="448"/>
+      <c r="H4" s="446"/>
+      <c r="I4" s="446"/>
+      <c r="J4" s="446"/>
+      <c r="K4" s="447"/>
       <c r="L4"/>
       <c r="M4" s="91"/>
       <c r="N4" s="91"/>
@@ -29060,21 +29057,21 @@
       <c r="AD4" s="91"/>
     </row>
     <row r="5" spans="1:30" ht="26.25" customHeight="1">
-      <c r="A5" s="449" t="s">
+      <c r="A5" s="448" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="450"/>
-      <c r="C5" s="450"/>
-      <c r="D5" s="450"/>
-      <c r="E5" s="451"/>
+      <c r="B5" s="449"/>
+      <c r="C5" s="449"/>
+      <c r="D5" s="449"/>
+      <c r="E5" s="450"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="449" t="s">
+      <c r="G5" s="448" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="450"/>
-      <c r="I5" s="450"/>
-      <c r="J5" s="450"/>
-      <c r="K5" s="451"/>
+      <c r="H5" s="449"/>
+      <c r="I5" s="449"/>
+      <c r="J5" s="449"/>
+      <c r="K5" s="450"/>
       <c r="L5"/>
       <c r="M5" s="91"/>
       <c r="N5" s="91"/>
@@ -29096,25 +29093,25 @@
       <c r="AD5" s="91"/>
     </row>
     <row r="6" spans="1:30" ht="26.25" customHeight="1">
-      <c r="A6" s="452" t="s">
+      <c r="A6" s="451" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="453"/>
-      <c r="C6" s="454">
+      <c r="B6" s="452"/>
+      <c r="C6" s="453">
         <v>42181</v>
       </c>
-      <c r="D6" s="455"/>
-      <c r="E6" s="456"/>
+      <c r="D6" s="454"/>
+      <c r="E6" s="455"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="452" t="s">
+      <c r="G6" s="451" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="453"/>
-      <c r="I6" s="454">
+      <c r="H6" s="452"/>
+      <c r="I6" s="453">
         <v>42181</v>
       </c>
-      <c r="J6" s="455"/>
-      <c r="K6" s="456"/>
+      <c r="J6" s="454"/>
+      <c r="K6" s="455"/>
       <c r="L6"/>
       <c r="M6" s="91"/>
       <c r="N6" s="91"/>
@@ -29136,21 +29133,21 @@
       <c r="AD6" s="91"/>
     </row>
     <row r="7" spans="1:30" ht="26.25" customHeight="1">
-      <c r="A7" s="443" t="s">
+      <c r="A7" s="442" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="444"/>
-      <c r="C7" s="444"/>
-      <c r="D7" s="444"/>
-      <c r="E7" s="445"/>
+      <c r="B7" s="443"/>
+      <c r="C7" s="443"/>
+      <c r="D7" s="443"/>
+      <c r="E7" s="444"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="443" t="s">
+      <c r="G7" s="442" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="444"/>
-      <c r="I7" s="444"/>
-      <c r="J7" s="444"/>
-      <c r="K7" s="445"/>
+      <c r="H7" s="443"/>
+      <c r="I7" s="443"/>
+      <c r="J7" s="443"/>
+      <c r="K7" s="444"/>
       <c r="L7"/>
       <c r="M7" s="91"/>
       <c r="N7" s="91"/>
